--- a/ECL WBS.xlsx
+++ b/ECL WBS.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Project Summary" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Please wait..." sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="Task Schedule" sheetId="2" r:id="rId4"/>
     <sheet state="visible" name="Resources" sheetId="3" r:id="rId5"/>
     <sheet state="visible" name="Holidays" sheetId="4" r:id="rId6"/>
     <sheet state="hidden" name="TRANSGOOGLE" sheetId="5" r:id="rId7"/>
@@ -12,13 +12,13 @@
   </sheets>
   <definedNames>
     <definedName name="projectRemainDaysTitle">'Project Summary'!$B$13</definedName>
-    <definedName name="task">'Please wait...'!$B$3</definedName>
+    <definedName name="task">'Task Schedule'!$B$3</definedName>
     <definedName name="projectRemainDaysVal">'Project Summary'!$C$13</definedName>
     <definedName name="projectWorkVal">'Project Summary'!$C$11</definedName>
     <definedName name="projectStartVal">'Project Summary'!$C$7</definedName>
     <definedName name="projectRemainWorkTitle">'Project Summary'!$B$12</definedName>
     <definedName name="projectFinishVal">'Project Summary'!$C$8</definedName>
-    <definedName localSheetId="1" name="task">'Please wait...'!$B$3</definedName>
+    <definedName localSheetId="1" name="task">'Task Schedule'!$B$3</definedName>
     <definedName name="holiday_description">Holidays!$B$1</definedName>
     <definedName name="projectProgressVal">'Project Summary'!$C$10</definedName>
     <definedName name="projectManagerVal">'Project Summary'!$C$5</definedName>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="136">
   <si>
     <t>Project Summary (read-only)</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>無題のスプレッドシート</t>
-  </si>
-  <si>
-    <t>Resource name</t>
   </si>
   <si>
     <t>Project Manager</t>
@@ -134,6 +131,9 @@
   </si>
   <si>
     <t>Cost</t>
+  </si>
+  <si>
+    <t>Resource name</t>
   </si>
   <si>
     <t>Type</t>
@@ -250,9 +250,6 @@
     <t>13</t>
   </si>
   <si>
-    <t>Non-working dates</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
@@ -263,9 +260,6 @@
   </si>
   <si>
     <t>17</t>
-  </si>
-  <si>
-    <t>Description</t>
   </si>
   <si>
     <t>18</t>
@@ -319,6 +313,12 @@
     <t>#</t>
   </si>
   <si>
+    <t>Non-working dates</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>|</t>
   </si>
   <si>
@@ -338,12 +338,6 @@
   </si>
   <si>
     <t>ER図</t>
-  </si>
-  <si>
-    <t>translate (contact in English please)</t>
-  </si>
-  <si>
-    <t>翻訳する（英語で連絡してください）</t>
   </si>
   <si>
     <t>テーブル定義書</t>
@@ -369,10 +363,19 @@
     <t>実装</t>
   </si>
   <si>
+    <t>translate (contact in English please)</t>
+  </si>
+  <si>
+    <t>翻訳する（英語で連絡してください）</t>
+  </si>
+  <si>
     <t>users view</t>
   </si>
   <si>
     <t>商品一覧、マイページ、カート、ログアウト</t>
+  </si>
+  <si>
+    <t>鈴木さん</t>
   </si>
   <si>
     <t>・サイトの紹介
@@ -389,6 +392,9 @@
   <si>
     <t>・商品詳細画面へのリンク
 ・カートへの商品追加機能</t>
+  </si>
+  <si>
+    <t>森さん</t>
   </si>
   <si>
     <t>・商品一覧画面へのBackボタン
@@ -409,6 +415,9 @@
     <t>・ユーザー情報
 ・購入履歴一覧（id順）
 ・編集画面へ遷移</t>
+  </si>
+  <si>
+    <t>平川さん</t>
   </si>
   <si>
     <t>・ユーザー情報変更フォーム
@@ -620,29 +629,29 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="19" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyFill="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyFill="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -713,6 +722,9 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -793,32 +805,32 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1"/>
     <row r="7" ht="15.75" customHeight="1">
       <c r="B7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="8">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9">
         <v>43647.0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="B8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9">
         <v>43677.0</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="B9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="6">
         <v>23.0</v>
@@ -826,7 +838,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="B10" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="11">
         <v>0.13043478260869565</v>
@@ -834,41 +846,41 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="B12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="B13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="B14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="B15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
@@ -1888,15 +1900,15 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="17"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="16"/>
       <c r="J1" s="11"/>
       <c r="K1" s="18"/>
       <c r="L1" s="19"/>
@@ -1986,35 +1998,35 @@
         <v>29</v>
       </c>
       <c r="C2" s="25"/>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="H2" s="27" t="s">
         <v>7</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>8</v>
       </c>
       <c r="I2" s="28" t="s">
         <v>32</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K2" s="24" t="s">
         <v>33</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N2" s="32" t="s">
         <v>34</v>
@@ -2077,34 +2089,34 @@
         <v>53</v>
       </c>
       <c r="AH2" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI2" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="AI2" s="32" t="s">
+      <c r="AJ2" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="AJ2" s="33" t="s">
+      <c r="AK2" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="AK2" s="33" t="s">
+      <c r="AL2" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="AL2" s="33" t="s">
+      <c r="AM2" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN2" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="AM2" s="33" t="s">
+      <c r="AO2" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="AN2" s="33" t="s">
+      <c r="AP2" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="AO2" s="34" t="s">
+      <c r="AQ2" s="33" t="s">
         <v>63</v>
-      </c>
-      <c r="AP2" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ2" s="33" t="s">
-        <v>65</v>
       </c>
       <c r="AR2" s="33" t="s">
         <v>34</v>
@@ -2128,7 +2140,7 @@
         <v>40</v>
       </c>
       <c r="AY2" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AZ2" s="33" t="s">
         <v>41</v>
@@ -2170,34 +2182,34 @@
         <v>53</v>
       </c>
       <c r="BM2" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="BN2" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="BN2" s="33" t="s">
+      <c r="BO2" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="BO2" s="33" t="s">
+      <c r="BP2" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="BP2" s="33" t="s">
+      <c r="BQ2" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="BQ2" s="34" t="s">
+      <c r="BR2" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="BS2" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="BR2" s="32" t="s">
+      <c r="BT2" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="BS2" s="33" t="s">
+      <c r="BU2" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="BT2" s="33" t="s">
+      <c r="BV2" s="33" t="s">
         <v>63</v>
-      </c>
-      <c r="BU2" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="BV2" s="33" t="s">
-        <v>65</v>
       </c>
       <c r="BW2" s="33" t="s">
         <v>34</v>
@@ -2221,271 +2233,271 @@
         <v>40</v>
       </c>
       <c r="CD2" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="CE2" s="34" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" ht="15.75" hidden="1" customHeight="1">
-      <c r="A3" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="10"/>
+      <c r="A3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="5"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="I3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="J3" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="K3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>76</v>
-      </c>
       <c r="O3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T3" s="37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="U3" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Y3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Z3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AA3" s="37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AB3" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AC3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AE3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AF3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AG3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AH3" s="37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AI3" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AJ3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AK3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AL3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AM3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AN3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AO3" s="37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AP3" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AQ3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AR3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AS3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AT3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AU3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AV3" s="37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AW3" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AX3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AY3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AZ3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BA3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BB3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BC3" s="37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BD3" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BE3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BF3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BG3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BH3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BI3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BJ3" s="37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BK3" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BL3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BM3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BN3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BO3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BP3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BQ3" s="37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BR3" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BS3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BT3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BU3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BV3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BW3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BX3" s="37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BY3" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BZ3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="CA3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="CB3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="CC3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="CD3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="CE3" s="37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="35"/>
       <c r="I4" s="11"/>
       <c r="J4" s="38"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="3"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="8"/>
       <c r="N4" s="39"/>
       <c r="O4" s="40"/>
       <c r="P4" s="40"/>
@@ -2560,21 +2572,21 @@
       <c r="CE4" s="41"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="12">
         <v>43647.0</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="12">
         <v>43648.0</v>
       </c>
       <c r="H5" s="35">
@@ -2585,8 +2597,8 @@
         <v>1.0</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="3"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="8"/>
       <c r="N5" s="39"/>
       <c r="O5" s="40"/>
       <c r="P5" s="40"/>
@@ -2665,21 +2677,21 @@
       <c r="CE5" s="41"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="12">
         <v>43650.0</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="12">
         <v>43650.0</v>
       </c>
       <c r="H6" s="35">
@@ -2690,8 +2702,8 @@
         <v>1.0</v>
       </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="3"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="8"/>
       <c r="N6" s="39"/>
       <c r="O6" s="40"/>
       <c r="P6" s="40"/>
@@ -2768,21 +2780,21 @@
       <c r="CE6" s="41"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <v>43651.0</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="12">
         <v>43651.0</v>
       </c>
       <c r="H7" s="35">
@@ -2793,8 +2805,8 @@
         <v>1.0</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="3"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="8"/>
       <c r="N7" s="39"/>
       <c r="O7" s="40"/>
       <c r="P7" s="40"/>
@@ -2871,21 +2883,21 @@
       <c r="CE7" s="41"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="12">
         <v>43653.0</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="12">
         <v>43655.0</v>
       </c>
       <c r="H8" s="35">
@@ -2896,8 +2908,8 @@
         <v>1.0</v>
       </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="3"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="8"/>
       <c r="N8" s="39"/>
       <c r="O8" s="40"/>
       <c r="P8" s="40"/>
@@ -2978,21 +2990,21 @@
       <c r="CE8" s="41"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="10"/>
+      <c r="B9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="12">
         <v>43656.0</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="12">
         <v>43656.0</v>
       </c>
       <c r="H9" s="35">
@@ -3003,8 +3015,8 @@
         <v>1.0</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="3"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="8"/>
       <c r="N9" s="39"/>
       <c r="O9" s="40"/>
       <c r="P9" s="40"/>
@@ -3079,21 +3091,21 @@
       <c r="CE9" s="41"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="10"/>
+      <c r="B10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="12">
         <v>43657.0</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="12">
         <v>43657.0</v>
       </c>
       <c r="H10" s="35">
@@ -3104,8 +3116,8 @@
         <v>1.0</v>
       </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="3"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="8"/>
       <c r="N10" s="39"/>
       <c r="O10" s="40"/>
       <c r="P10" s="40"/>
@@ -3182,25 +3194,25 @@
       <c r="CE10" s="41"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="E11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="14">
+      <c r="F11" s="12">
         <v>43657.0</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="12">
         <v>43658.0</v>
       </c>
       <c r="H11" s="35">
@@ -3211,8 +3223,8 @@
         <v>0.0</v>
       </c>
       <c r="K11" s="1"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="3"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="8"/>
       <c r="N11" s="39"/>
       <c r="O11" s="40"/>
       <c r="P11" s="40"/>
@@ -3287,21 +3299,21 @@
       <c r="CE11" s="41"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="10"/>
+      <c r="B12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="12">
         <v>43659.0</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="12">
         <v>43668.0</v>
       </c>
       <c r="H12" s="35">
@@ -3312,8 +3324,8 @@
         <v>0.0</v>
       </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="3"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="8"/>
       <c r="N12" s="39"/>
       <c r="O12" s="40"/>
       <c r="P12" s="40"/>
@@ -3388,7 +3400,7 @@
       <c r="CE12" s="41"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="45" t="s">
@@ -3401,17 +3413,19 @@
       <c r="D13" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="E13" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
       <c r="H13" s="35"/>
       <c r="I13" s="11"/>
       <c r="J13" s="38">
         <v>0.0</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="3"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="8"/>
       <c r="N13" s="39"/>
       <c r="O13" s="40"/>
       <c r="P13" s="40"/>
@@ -3486,30 +3500,32 @@
       <c r="CE13" s="41"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="52" t="str">
+      <c r="C14" s="53" t="str">
         <f>HYPERLINK("https://www.draw.io/?lightbox=1&amp;highlight=0000ff&amp;edit=_blank&amp;layers=1&amp;nav=1&amp;title=users_top.drawio#R1ZbBjpswEIafZo6VggHHPgIh6VbaU7SqeqpocMEqxJHXWUifvia2g0l2K1atqvQSTf4Ze%2Bz%2FMwYIs7bfyOJQP4qSNYAWZQ%2FhChCiAdG%2Fg3AyAg6wESrJSyMFo7DlP5kVF1Y98pI9TwqVEI3ih6m"&amp;"4E%2Fs926mJVkgpumnZd9FMux6Kit0I213R3KqfealqoxK0HPWPjFe16xxgajJt4YrtTp7rohSdJ4U5hJkUQpmo7TPWDN45X8y49RvZy8Ik26s5Ax4fih%2BbbNskD0%2FV5uvTF%2FKJrz8EkZnmpWiOdseAcKMnTGvdAVdDBHkIJIQkOAcIksgqaQj5EmgEqa6JB4Ws3XC9EG8G44A6OVulOO5LNqws0Omu5optD8VuyHb6HA3tVdvY9O1O7e"&amp;"ZfmFSs9yS78w0TLVPypEv66XGyp9Ax6TykrqT2cEbUioU9RtVl5tFpHViz32M8ftt4NNpmlG%2FXAh%2FRxEC18%2FgcaP81I42DAFlATiDBkCw9RhToChJ0xhdAkjuyiQfUIPY58uv2WrtZ0sAbzeC9%2BCe80ZR3%2FApwFL8C%2FHJQ%2Fj5wMgd4joFiSB08%2FTgN8KiFRzJI0R%2FjvCdM9P440VmcjNEr6%2B8A7DdX43%2FPKcZ3x8m"&amp;"twOdk3NT3oQmIszVdO6Ozy5Uq78bcq3fTMpr5cgrfb63%2BO35wnHPeV1uY%2FwI%3D","トップ画面")</f>
         <v>トップ画面</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
       <c r="H14" s="35"/>
       <c r="I14" s="11"/>
       <c r="J14" s="38">
         <v>0.0</v>
       </c>
       <c r="K14" s="1"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="3"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="8"/>
       <c r="N14" s="39"/>
       <c r="O14" s="40"/>
       <c r="P14" s="40"/>
@@ -3584,30 +3600,32 @@
       <c r="CE14" s="41"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="52" t="str">
+      <c r="C15" s="53" t="str">
         <f>HYPERLINK("https://www.draw.io/?lightbox=1&amp;highlight=0000ff&amp;edit=_blank&amp;layers=1&amp;nav=1&amp;title=login.drawio#Uhttps%3A%2F%2Fraw.githubusercontent.com%2Fecl11%2FECL%2Fmaster%2F%25E3%2583%25AF%25E3%2582%25A4%25E3%2583%25A4%25E3%2583%25BC%25E3%2583%2595%25E3%2583%25AC%25E"&amp;"3%2583%25BC%25E3%2583%25A0%2Flogin.drawio","ログイン画面")</f>
         <v>ログイン画面</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+        <v>97</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
       <c r="H15" s="35"/>
       <c r="I15" s="11"/>
       <c r="J15" s="38">
         <v>0.0</v>
       </c>
       <c r="K15" s="1"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="3"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="8"/>
       <c r="N15" s="39"/>
       <c r="O15" s="40"/>
       <c r="P15" s="40"/>
@@ -3682,30 +3700,32 @@
       <c r="CE15" s="41"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="52" t="str">
+      <c r="C16" s="53" t="str">
         <f>HYPERLINK("https://www.draw.io/?lightbox=1&amp;highlight=0000ff&amp;edit=_blank&amp;layers=1&amp;nav=1&amp;title=user_signup.drawio#Uhttps%3A%2F%2Fraw.githubusercontent.com%2Fecl11%2FECL%2Fmaster%2F%25E3%2583%25AF%25E3%2582%25A4%25E3%2583%25A4%25E3%2583%25BC%25E3%2583%2595%25E3%2583%25"&amp;"AC%25E3%2583%25BC%25E3%2583%25A0%2Fuser%2Fuser_signup.drawio","新規登録画面")</f>
         <v>新規登録画面</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+        <v>98</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
       <c r="H16" s="35"/>
       <c r="I16" s="11"/>
       <c r="J16" s="38">
         <v>0.0</v>
       </c>
       <c r="K16" s="1"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="3"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="8"/>
       <c r="N16" s="39"/>
       <c r="O16" s="40"/>
       <c r="P16" s="40"/>
@@ -3780,30 +3800,32 @@
       <c r="CE16" s="41"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="52" t="str">
+      <c r="C17" s="53" t="str">
         <f>HYPERLINK("https://www.draw.io/?lightbox=1&amp;highlight=0000ff&amp;edit=_blank&amp;layers=1&amp;nav=1&amp;title=user_item_list.drawio#Uhttps%3A%2F%2Fraw.githubusercontent.com%2Fecl11%2FECL%2Fmaster%2F%25E3%2583%25AF%25E3%2582%25A4%25E3%2583%25A4%25E3%2583%25BC%25E3%2583%2595%25E3%2583"&amp;"%25AC%25E3%2583%25BC%25E3%2583%25A0%2Fuser%2Fuser_item_list.drawio","商品一覧画面")</f>
         <v>商品一覧画面</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+        <v>99</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
       <c r="H17" s="35"/>
       <c r="I17" s="11"/>
       <c r="J17" s="38">
         <v>0.0</v>
       </c>
       <c r="K17" s="1"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="3"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="8"/>
       <c r="N17" s="39"/>
       <c r="O17" s="40"/>
       <c r="P17" s="40"/>
@@ -3878,30 +3900,32 @@
       <c r="CE17" s="41"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="51" t="s">
+      <c r="A18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="52" t="str">
+      <c r="C18" s="53" t="str">
         <f>HYPERLINK("https://www.draw.io/?lightbox=1&amp;highlight=0000ff&amp;edit=_blank&amp;layers=1&amp;nav=1&amp;title=user_item_detail.drawio#Uhttps%3A%2F%2Fraw.githubusercontent.com%2Fecl11%2FECL%2Fmaster%2F%25E3%2583%25AF%25E3%2582%25A4%25E3%2583%25A4%25E3%2583%25BC%25E3%2583%2595%25E3%25"&amp;"83%25AC%25E3%2583%25BC%25E3%2583%25A0%2Fuser%2Fuser_item_detail.drawio","商品詳細画面")</f>
         <v>商品詳細画面</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+        <v>101</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="35"/>
       <c r="I18" s="11"/>
       <c r="J18" s="38">
         <v>0.0</v>
       </c>
       <c r="K18" s="1"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="3"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="8"/>
       <c r="N18" s="39"/>
       <c r="O18" s="40"/>
       <c r="P18" s="40"/>
@@ -3976,30 +4000,32 @@
       <c r="CE18" s="41"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="51" t="s">
+      <c r="A19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="52" t="str">
+      <c r="C19" s="53" t="str">
         <f>HYPERLINK("https://www.draw.io/?lightbox=1&amp;highlight=0000ff&amp;edit=_blank&amp;layers=1&amp;nav=1&amp;title=user_cart.drawio#Uhttps%3A%2F%2Fraw.githubusercontent.com%2Fecl11%2FECL%2Fmaster%2F%25E3%2583%25AF%25E3%2582%25A4%25E3%2583%25A4%25E3%2583%25BC%25E3%2583%2595%25E3%2583%25AC"&amp;"%25E3%2583%25BC%25E3%2583%25A0%2Fuser%2Fuser_cart.drawio","カート画面")</f>
         <v>カート画面</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
       <c r="H19" s="35"/>
       <c r="I19" s="11"/>
       <c r="J19" s="38">
         <v>0.0</v>
       </c>
       <c r="K19" s="1"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="3"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="8"/>
       <c r="N19" s="39"/>
       <c r="O19" s="40"/>
       <c r="P19" s="40"/>
@@ -4074,30 +4100,32 @@
       <c r="CE19" s="41"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="51" t="s">
+      <c r="A20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="52" t="str">
+      <c r="C20" s="53" t="str">
         <f>HYPERLINK("https://www.draw.io/?lightbox=1&amp;highlight=0000ff&amp;edit=_blank&amp;layers=1&amp;nav=1&amp;title=user_purchase.drawio#Uhttps%3A%2F%2Fraw.githubusercontent.com%2Fecl11%2FECL%2Fmaster%2F%25E3%2583%25AF%25E3%2582%25A4%25E3%2583%25A4%25E3%2583%25BC%25E3%2583%2595%25E3%2583%"&amp;"25AC%25E3%2583%25BC%25E3%2583%25A0%2Fuser%2Fuser_purchase.drawio","購入画面")</f>
         <v>購入画面</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+        <v>103</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
       <c r="H20" s="35"/>
       <c r="I20" s="11"/>
       <c r="J20" s="38">
         <v>0.0</v>
       </c>
       <c r="K20" s="1"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="3"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="8"/>
       <c r="N20" s="39"/>
       <c r="O20" s="40"/>
       <c r="P20" s="40"/>
@@ -4172,30 +4200,32 @@
       <c r="CE20" s="41"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="51" t="s">
+      <c r="A21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="52" t="str">
+      <c r="C21" s="53" t="str">
         <f>HYPERLINK("https://www.draw.io/?lightbox=1&amp;highlight=0000ff&amp;edit=_blank&amp;layers=1&amp;nav=1&amp;title=user_mypage.drawio#Uhttps%3A%2F%2Fraw.githubusercontent.com%2Fecl11%2FECL%2Fmaster%2F%25E3%2583%25AF%25E3%2582%25A4%25E3%2583%25A4%25E3%2583%25BC%25E3%2583%2595%25E3%2583%25"&amp;"AC%25E3%2583%25BC%25E3%2583%25A0%2Fuser%2Fuser_mypage.drawio","マイページ")</f>
         <v>マイページ</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+        <v>104</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="35"/>
       <c r="I21" s="11"/>
       <c r="J21" s="38">
         <v>0.0</v>
       </c>
       <c r="K21" s="1"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="3"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="8"/>
       <c r="N21" s="39"/>
       <c r="O21" s="40"/>
       <c r="P21" s="40"/>
@@ -4270,30 +4300,32 @@
       <c r="CE21" s="41"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="51" t="s">
+      <c r="A22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="52" t="str">
+      <c r="C22" s="53" t="str">
         <f>HYPERLINK("https://www.draw.io/?lightbox=1&amp;highlight=0000ff&amp;edit=_blank&amp;layers=1&amp;nav=1&amp;title=user_edit.drawio#Uhttps%3A%2F%2Fraw.githubusercontent.com%2Fecl11%2FECL%2Fmaster%2F%25E3%2583%25AF%25E3%2582%25A4%25E3%2583%25A4%25E3%2583%25BC%25E3%2583%2595%25E3%2583%25AC"&amp;"%25E3%2583%25BC%25E3%2583%25A0%2Fuser%2Fuser_edit.drawio","ユーザー編集画面")</f>
         <v>ユーザー編集画面</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+        <v>106</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="35"/>
       <c r="I22" s="11"/>
       <c r="J22" s="38">
         <v>0.0</v>
       </c>
       <c r="K22" s="1"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="3"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="8"/>
       <c r="N22" s="39"/>
       <c r="O22" s="40"/>
       <c r="P22" s="40"/>
@@ -4368,19 +4400,19 @@
       <c r="CE22" s="41"/>
     </row>
     <row r="23" ht="9.75" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="10"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
       <c r="H23" s="35"/>
       <c r="I23" s="11"/>
       <c r="J23" s="38"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="3"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="8"/>
       <c r="N23" s="39"/>
       <c r="O23" s="40"/>
       <c r="P23" s="40"/>
@@ -4455,30 +4487,32 @@
       <c r="CE23" s="41"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" s="52" t="str">
+      <c r="A24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="53" t="str">
         <f>HYPERLINK("https://www.draw.io/?lightbox=1&amp;highlight=0000ff&amp;edit=_blank&amp;layers=1&amp;nav=1&amp;title=admin_header.drawio#Uhttps%3A%2F%2Fraw.githubusercontent.com%2Fecl11%2FECL%2Fmaster%2F%25E3%2583%25AF%25E3%2582%25A4%25E3%2583%25A4%25E3%2583%25BC%25E3%2583%2595%25E3%2583%2"&amp;"5AC%25E3%2583%25BC%25E3%2583%25A0%2Fadmin%2Fadmin_header.drawio","ヘッダー")</f>
         <v>ヘッダー</v>
       </c>
       <c r="D24" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+        <v>108</v>
+      </c>
+      <c r="E24" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
       <c r="H24" s="35"/>
       <c r="I24" s="11"/>
       <c r="J24" s="38">
         <v>0.0</v>
       </c>
       <c r="K24" s="1"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="3"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="8"/>
       <c r="N24" s="39"/>
       <c r="O24" s="40"/>
       <c r="P24" s="40"/>
@@ -4553,30 +4587,32 @@
       <c r="CE24" s="41"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="52" t="str">
+      <c r="A25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="53" t="str">
         <f>HYPERLINK("https://www.draw.io/?lightbox=1&amp;highlight=0000ff&amp;edit=_blank&amp;layers=1&amp;nav=1&amp;title=admin_top.drawio#R1ZZNj5swEIZ%2FzRwrgfmIfQQC6VbaU7Sqeqrc4IJViCOvs5D%2B%2BprYDpDsVqzUVuklmrwz9tjvYwwQZG2%2FkfRQP4qSNYC8sodgDQgRH%2BvfQTgZIfZjI1SSl0byR2HLfzIrelY98pI9zwqVEI3ih"&amp;"7m4E%2Fs926mZRqUU3bzsu2jmXQ%2B0YjfCdkebW%2FUzL1VtVIxWo%2F6R8ap2nf2YmExLXbHdyXNNS9FNpCCHIJNCKBO1fcaawTvnixlXvJG9LEyyvVoy4PGB%2Fthk2yZ5eKo2X5%2B%2B4E%2B8%2BOCHZpoX2hztjgHFjZ4wrXWHuBoiyAPAAST%2BOUCQhFZJA8hXQEJIdU00KLhww%2FVCJjMYB9TJ2SrFcV%2ByYWW%2BTnc1V2x7oL"&amp;"sh2%2BlzNLRXbWPTtzu1m39hUrF%2BItmdb5homZInXdLPj5M9hY5JN0HqSuoJzpBYkdpjVF1mHp3WgTX7PcbHbxuPRtuM8u1a4COaCIh2Pj4H2n%2FNSOPAgD3IMSQxJKsJIwJkDQk64%2FMhyR3ZZALUIJ5y5NfttXazpIE3WsDb%2Bye80Zx39ApwFL0C%2FHJQ%2FjxwvAT48BQVQDSzeICR4L%2BA854wkfvjRBZxMkavrb%2Bp99ur8b%"&amp;"2FnFMV3x8mtYMrJuKnvQxNgZ2taOKOzy5Uq78bcq3fTKlz4cgreb63%2BO35wnHOTr7Yg%2FwU%3D","トップ画面")</f>
         <v>トップ画面</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+        <v>109</v>
+      </c>
+      <c r="E25" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
       <c r="H25" s="35"/>
       <c r="I25" s="11"/>
       <c r="J25" s="38">
         <v>0.0</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="3"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="8"/>
       <c r="N25" s="39"/>
       <c r="O25" s="40"/>
       <c r="P25" s="40"/>
@@ -4651,30 +4687,32 @@
       <c r="CE25" s="41"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="52" t="str">
+      <c r="A26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="53" t="str">
         <f>HYPERLINK("https://www.draw.io/?lightbox=1&amp;highlight=0000ff&amp;edit=_blank&amp;layers=1&amp;nav=1&amp;title=login.drawio#Uhttps%3A%2F%2Fraw.githubusercontent.com%2Fecl11%2FECL%2Fmaster%2F%25E3%2583%25AF%25E3%2582%25A4%25E3%2583%25A4%25E3%2583%25BC%25E3%2583%2595%25E3%2583%25AC%25E"&amp;"3%2583%25BC%25E3%2583%25A0%2Flogin.drawio","ログイン画面")</f>
         <v>ログイン画面</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
+        <v>110</v>
+      </c>
+      <c r="E26" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
       <c r="H26" s="35"/>
       <c r="I26" s="11"/>
       <c r="J26" s="38">
         <v>0.0</v>
       </c>
       <c r="K26" s="1"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="3"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="8"/>
       <c r="N26" s="39"/>
       <c r="O26" s="40"/>
       <c r="P26" s="40"/>
@@ -4749,30 +4787,32 @@
       <c r="CE26" s="41"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="52" t="str">
+      <c r="A27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="53" t="str">
         <f>HYPERLINK("https://www.draw.io/?lightbox=1&amp;highlight=0000ff&amp;edit=_blank&amp;layers=1&amp;nav=1&amp;title=admin_item_list.drawio#Uhttps%3A%2F%2Fraw.githubusercontent.com%2Fecl11%2FECL%2Fmaster%2F%25E3%2583%25AF%25E3%2582%25A4%25E3%2583%25A4%25E3%2583%25BC%25E3%2583%2595%25E3%258"&amp;"3%25AC%25E3%2583%25BC%25E3%2583%25A0%2Fadmin%2Fadmin_item_list.drawio","商品一覧画面")</f>
         <v>商品一覧画面</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
+        <v>111</v>
+      </c>
+      <c r="E27" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
       <c r="H27" s="35"/>
       <c r="I27" s="11"/>
       <c r="J27" s="38">
         <v>0.0</v>
       </c>
       <c r="K27" s="1"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="3"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="8"/>
       <c r="N27" s="39"/>
       <c r="O27" s="40"/>
       <c r="P27" s="40"/>
@@ -4847,30 +4887,32 @@
       <c r="CE27" s="41"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="52" t="str">
+      <c r="A28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="53" t="str">
         <f>HYPERLINK("https://www.draw.io/?lightbox=1&amp;highlight=0000ff&amp;edit=_blank&amp;layers=1&amp;nav=1&amp;title=admin_item_detail.drawio#Uhttps%3A%2F%2Fraw.githubusercontent.com%2Fecl11%2FECL%2Fmaster%2F%25E3%2583%25AF%25E3%2582%25A4%25E3%2583%25A4%25E3%2583%25BC%25E3%2583%2595%25E3%2"&amp;"583%25AC%25E3%2583%25BC%25E3%2583%25A0%2Fadmin%2Fadmin_item_detail.drawio","商品詳細画面")</f>
         <v>商品詳細画面</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
+        <v>112</v>
+      </c>
+      <c r="E28" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
       <c r="H28" s="35"/>
       <c r="I28" s="11"/>
       <c r="J28" s="38">
         <v>0.0</v>
       </c>
       <c r="K28" s="1"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="3"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="8"/>
       <c r="N28" s="39"/>
       <c r="O28" s="40"/>
       <c r="P28" s="40"/>
@@ -4945,30 +4987,32 @@
       <c r="CE28" s="41"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="52" t="str">
+      <c r="B29" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="53" t="str">
         <f>HYPERLINK("https://www.draw.io/?lightbox=1&amp;target=blank&amp;highlight=0000ff&amp;edit=_blank&amp;layers=1&amp;nav=1&amp;title=admin_item_add.drawio#Uhttps%3A%2F%2Fraw.githubusercontent.com%2Fecl11%2FECL%2Fmaster%2F%25E3%2583%25AF%25E3%2582%25A4%25E3%2583%25A4%25E3%2583%25BC%25E3%2583%2"&amp;"595%25E3%2583%25AC%25E3%2583%25BC%25E3%2583%25A0%2Fadmin%2Fadmin_item_add.drawio","商品追加画面")</f>
         <v>商品追加画面</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
+        <v>113</v>
+      </c>
+      <c r="E29" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
       <c r="H29" s="35"/>
       <c r="I29" s="11"/>
       <c r="J29" s="38">
         <v>0.0</v>
       </c>
       <c r="K29" s="1"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="3"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="8"/>
       <c r="N29" s="39"/>
       <c r="O29" s="40"/>
       <c r="P29" s="40"/>
@@ -5043,30 +5087,32 @@
       <c r="CE29" s="41"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="52" t="str">
+      <c r="B30" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="53" t="str">
         <f>HYPERLINK("https://www.draw.io/?lightbox=1&amp;highlight=0000ff&amp;edit=_blank&amp;layers=1&amp;nav=1&amp;title=admin_item_edit.drawio#Uhttps%3A%2F%2Fraw.githubusercontent.com%2Fecl11%2FECL%2Fmaster%2F%25E3%2583%25AF%25E3%2582%25A4%25E3%2583%25A4%25E3%2583%25BC%25E3%2583%2595%25E3%258"&amp;"3%25AC%25E3%2583%25BC%25E3%2583%25A0%2Fadmin%2Fadmin_item_edit.drawio","商品編集画面")</f>
         <v>商品編集画面</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+        <v>114</v>
+      </c>
+      <c r="E30" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
       <c r="H30" s="35"/>
       <c r="I30" s="11"/>
       <c r="J30" s="38">
         <v>0.0</v>
       </c>
       <c r="K30" s="1"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="3"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="8"/>
       <c r="N30" s="39"/>
       <c r="O30" s="40"/>
       <c r="P30" s="40"/>
@@ -5141,30 +5187,32 @@
       <c r="CE30" s="41"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="52" t="str">
+      <c r="B31" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="53" t="str">
         <f>HYPERLINK("https://www.draw.io/?lightbox=1&amp;highlight=0000ff&amp;edit=_blank&amp;layers=1&amp;nav=1&amp;title=admin_users.drawio#Uhttps%3A%2F%2Fraw.githubusercontent.com%2Fecl11%2FECL%2Fmaster%2F%25E3%2583%25AF%25E3%2582%25A4%25E3%2583%25A4%25E3%2583%25BC%25E3%2583%2595%25E3%2583%25"&amp;"AC%25E3%2583%25BC%25E3%2583%25A0%2Fadmin%2Fadmin_users.drawio","ユーザー一覧画面")</f>
         <v>ユーザー一覧画面</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
+        <v>115</v>
+      </c>
+      <c r="E31" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
       <c r="H31" s="35"/>
       <c r="I31" s="11"/>
       <c r="J31" s="38">
         <v>0.0</v>
       </c>
       <c r="K31" s="1"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="3"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="8"/>
       <c r="N31" s="39"/>
       <c r="O31" s="40"/>
       <c r="P31" s="40"/>
@@ -5239,32 +5287,34 @@
       <c r="CE31" s="41"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="52" t="str">
+      <c r="B32" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="53" t="str">
         <f>HYPERLINK("https://www.draw.io/?lightbox=1&amp;highlight=0000ff&amp;edit=_blank&amp;layers=1&amp;nav=1&amp;title=admin_user_detail.drawio#Uhttps%3A%2F%2Fraw.githubusercontent.com%2Fecl11%2FECL%2Fmaster%2F%25E3%2583%25AF%25E3%2582%25A4%25E3%2583%25A4%25E3%2583%25BC%25E3%2583%2595%25E3%2"&amp;"583%25AC%25E3%2583%25BC%25E3%2583%25A0%2Fadmin%2Fadmin_user_detail.drawio","ユーザー詳細画面
 （購入履歴一覧含む）")</f>
         <v>ユーザー詳細画面
 （購入履歴一覧含む）</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
+        <v>116</v>
+      </c>
+      <c r="E32" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
       <c r="H32" s="35"/>
       <c r="I32" s="11"/>
       <c r="J32" s="38">
         <v>0.0</v>
       </c>
       <c r="K32" s="1"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="3"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="8"/>
       <c r="N32" s="39"/>
       <c r="O32" s="40"/>
       <c r="P32" s="40"/>
@@ -5339,30 +5389,32 @@
       <c r="CE32" s="41"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="52" t="str">
+      <c r="B33" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="53" t="str">
         <f>HYPERLINK("https://www.draw.io/?lightbox=1&amp;highlight=0000ff&amp;edit=_blank&amp;layers=1&amp;nav=1&amp;title=admin_user_edit.drawio#Uhttps%3A%2F%2Fraw.githubusercontent.com%2Fecl11%2FECL%2Fmaster%2F%25E3%2583%25AF%25E3%2582%25A4%25E3%2583%25A4%25E3%2583%25BC%25E3%2583%2595%25E3%258"&amp;"3%25AC%25E3%2583%25BC%25E3%2583%25A0%2Fadmin%2Fadmin_user_edit.drawio","ユーザー情報編集画面")</f>
         <v>ユーザー情報編集画面</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
+        <v>117</v>
+      </c>
+      <c r="E33" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
       <c r="H33" s="35"/>
       <c r="I33" s="11"/>
       <c r="J33" s="38">
         <v>0.0</v>
       </c>
       <c r="K33" s="1"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="3"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="8"/>
       <c r="N33" s="39"/>
       <c r="O33" s="40"/>
       <c r="P33" s="40"/>
@@ -5437,30 +5489,32 @@
       <c r="CE33" s="41"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" s="52" t="str">
+      <c r="B34" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="53" t="str">
         <f>HYPERLINK("https://www.draw.io/?lightbox=1&amp;highlight=0000ff&amp;edit=_blank&amp;layers=1&amp;nav=1&amp;title=admin_order_list.drawio#Uhttps%3A%2F%2Fraw.githubusercontent.com%2Fecl11%2FECL%2Fmaster%2F%25E3%2583%25AF%25E3%2582%25A4%25E3%2583%25A4%25E3%2583%25BC%25E3%2583%2595%25E3%25"&amp;"83%25AC%25E3%2583%25BC%25E3%2583%25A0%2Fadmin%2Fadmin_order_list.drawio","受注履歴一覧画面")</f>
         <v>受注履歴一覧画面</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
+        <v>118</v>
+      </c>
+      <c r="E34" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
       <c r="H34" s="35"/>
       <c r="I34" s="11"/>
       <c r="J34" s="38">
         <v>0.0</v>
       </c>
       <c r="K34" s="1"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="3"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="8"/>
       <c r="N34" s="39"/>
       <c r="O34" s="40"/>
       <c r="P34" s="40"/>
@@ -5535,30 +5589,32 @@
       <c r="CE34" s="41"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="53" t="str">
+      <c r="B35" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="54" t="str">
         <f>HYPERLINK("https://www.draw.io/?lightbox=1&amp;highlight=0000ff&amp;edit=_blank&amp;layers=1&amp;nav=1&amp;title=admin_order_detail.drawio#Uhttps%3A%2F%2Fraw.githubusercontent.com%2Fecl11%2FECL%2Fmaster%2F%25E3%2583%25AF%25E3%2582%25A4%25E3%2583%25A4%25E3%2583%25BC%25E3%2583%2595%25E3%"&amp;"2583%25AC%25E3%2583%25BC%25E3%2583%25A0%2Fadmin%2Fadmin_order_detail.drawio","受注履歴詳細画面")</f>
         <v>受注履歴詳細画面</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
+        <v>119</v>
+      </c>
+      <c r="E35" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
       <c r="H35" s="35"/>
       <c r="I35" s="11"/>
       <c r="J35" s="38">
         <v>0.0</v>
       </c>
       <c r="K35" s="1"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="3"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="8"/>
       <c r="N35" s="39"/>
       <c r="O35" s="40"/>
       <c r="P35" s="40"/>
@@ -5633,23 +5689,23 @@
       <c r="CE35" s="41"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>118</v>
+      <c r="A36" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F36" s="14">
+        <v>89</v>
+      </c>
+      <c r="F36" s="12">
         <v>43659.0</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G36" s="12">
         <v>43668.0</v>
       </c>
       <c r="H36" s="35">
@@ -5660,8 +5716,8 @@
         <v>0.0</v>
       </c>
       <c r="K36" s="1"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="3"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="8"/>
       <c r="N36" s="39"/>
       <c r="O36" s="40"/>
       <c r="P36" s="40"/>
@@ -5736,23 +5792,23 @@
       <c r="CE36" s="41"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37" s="10" t="s">
+      <c r="A37" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>120</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="F37" s="14">
+        <v>89</v>
+      </c>
+      <c r="F37" s="12">
         <v>43659.0</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G37" s="12">
         <v>43668.0</v>
       </c>
       <c r="H37" s="35">
@@ -5763,8 +5819,8 @@
         <v>0.0</v>
       </c>
       <c r="K37" s="1"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="3"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="8"/>
       <c r="N37" s="39"/>
       <c r="O37" s="40"/>
       <c r="P37" s="40"/>
@@ -5839,23 +5895,23 @@
       <c r="CE37" s="41"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>122</v>
+      <c r="A38" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="F38" s="14">
+        <v>89</v>
+      </c>
+      <c r="F38" s="12">
         <v>43659.0</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="12">
         <v>43668.0</v>
       </c>
       <c r="H38" s="35">
@@ -5866,8 +5922,8 @@
         <v>0.0</v>
       </c>
       <c r="K38" s="1"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="3"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="8"/>
       <c r="N38" s="39"/>
       <c r="O38" s="40"/>
       <c r="P38" s="40"/>
@@ -5942,23 +5998,23 @@
       <c r="CE38" s="41"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>124</v>
+      <c r="A39" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="F39" s="14">
+        <v>89</v>
+      </c>
+      <c r="F39" s="12">
         <v>43659.0</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="12">
         <v>43668.0</v>
       </c>
       <c r="H39" s="35">
@@ -5969,8 +6025,8 @@
         <v>0.0</v>
       </c>
       <c r="K39" s="1"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="3"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="8"/>
       <c r="N39" s="39"/>
       <c r="O39" s="40"/>
       <c r="P39" s="40"/>
@@ -6045,25 +6101,25 @@
       <c r="CE39" s="41"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" s="10"/>
+      <c r="A40" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="5"/>
       <c r="D40" s="1"/>
       <c r="E40" s="35"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
       <c r="H40" s="35"/>
       <c r="I40" s="11"/>
       <c r="J40" s="38">
         <v>0.0</v>
       </c>
       <c r="K40" s="1"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="3"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="8"/>
       <c r="N40" s="39"/>
       <c r="O40" s="40"/>
       <c r="P40" s="40"/>
@@ -6138,19 +6194,19 @@
       <c r="CE40" s="41"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C41" s="10"/>
+      <c r="A41" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="5"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="14">
+      <c r="F41" s="12">
         <v>43669.0</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G41" s="12">
         <v>43671.0</v>
       </c>
       <c r="H41" s="35">
@@ -6161,8 +6217,8 @@
         <v>0.0</v>
       </c>
       <c r="K41" s="1"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="3"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="8"/>
       <c r="N41" s="39"/>
       <c r="O41" s="40"/>
       <c r="P41" s="40"/>
@@ -6237,19 +6293,19 @@
       <c r="CE41" s="41"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C42" s="10"/>
+      <c r="A42" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="5"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="14">
+      <c r="F42" s="12">
         <v>43673.0</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G42" s="12">
         <v>43675.0</v>
       </c>
       <c r="H42" s="35">
@@ -6260,8 +6316,8 @@
         <v>0.0</v>
       </c>
       <c r="K42" s="1"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="3"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="8"/>
       <c r="N42" s="39"/>
       <c r="O42" s="40"/>
       <c r="P42" s="40"/>
@@ -6336,19 +6392,19 @@
       <c r="CE42" s="41"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" s="10"/>
+      <c r="A43" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="5"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="14">
+      <c r="F43" s="12">
         <v>43676.0</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G43" s="12">
         <v>43677.0</v>
       </c>
       <c r="H43" s="35">
@@ -6359,8 +6415,8 @@
         <v>0.0</v>
       </c>
       <c r="K43" s="1"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="3"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="8"/>
       <c r="N43" s="39"/>
       <c r="O43" s="40"/>
       <c r="P43" s="40"/>
@@ -6435,19 +6491,19 @@
       <c r="CE43" s="41"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="9"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
       <c r="H44" s="35"/>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
       <c r="K44" s="1"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="3"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="8"/>
       <c r="N44" s="36"/>
       <c r="T44" s="37"/>
       <c r="U44" s="36"/>
@@ -6470,19 +6526,19 @@
       <c r="CE44" s="37"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="9"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
       <c r="H45" s="35"/>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
       <c r="K45" s="1"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="3"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="8"/>
       <c r="N45" s="36"/>
       <c r="T45" s="37"/>
       <c r="U45" s="36"/>
@@ -6505,19 +6561,19 @@
       <c r="CE45" s="37"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="9"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
       <c r="H46" s="35"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
       <c r="K46" s="1"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="3"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="8"/>
       <c r="N46" s="36"/>
       <c r="T46" s="37"/>
       <c r="U46" s="36"/>
@@ -6540,19 +6596,19 @@
       <c r="CE46" s="37"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="9"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
       <c r="H47" s="35"/>
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
       <c r="K47" s="1"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="3"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="8"/>
       <c r="N47" s="36"/>
       <c r="T47" s="37"/>
       <c r="U47" s="36"/>
@@ -6575,19 +6631,19 @@
       <c r="CE47" s="37"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="9"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
       <c r="H48" s="35"/>
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
       <c r="K48" s="1"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="3"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="8"/>
       <c r="N48" s="36"/>
       <c r="T48" s="37"/>
       <c r="U48" s="36"/>
@@ -6610,19 +6666,19 @@
       <c r="CE48" s="37"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="9"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
       <c r="H49" s="35"/>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
       <c r="K49" s="1"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="3"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="8"/>
       <c r="N49" s="36"/>
       <c r="T49" s="37"/>
       <c r="U49" s="36"/>
@@ -6645,19 +6701,19 @@
       <c r="CE49" s="37"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="9"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
       <c r="H50" s="35"/>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="1"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="3"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="8"/>
       <c r="N50" s="36"/>
       <c r="T50" s="37"/>
       <c r="U50" s="36"/>
@@ -6680,19 +6736,19 @@
       <c r="CE50" s="37"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
       <c r="H51" s="35"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
       <c r="K51" s="1"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="3"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="8"/>
       <c r="N51" s="36"/>
       <c r="T51" s="37"/>
       <c r="U51" s="36"/>
@@ -6715,19 +6771,19 @@
       <c r="CE51" s="37"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="9"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
       <c r="H52" s="35"/>
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
       <c r="K52" s="1"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="3"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="8"/>
       <c r="N52" s="36"/>
       <c r="T52" s="37"/>
       <c r="U52" s="36"/>
@@ -6750,19 +6806,19 @@
       <c r="CE52" s="37"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="9"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
       <c r="H53" s="35"/>
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
       <c r="K53" s="1"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="3"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="8"/>
       <c r="N53" s="36"/>
       <c r="T53" s="37"/>
       <c r="U53" s="36"/>
@@ -6785,19 +6841,19 @@
       <c r="CE53" s="37"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="9"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
       <c r="H54" s="35"/>
       <c r="I54" s="11"/>
       <c r="J54" s="11"/>
       <c r="K54" s="1"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="3"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="8"/>
       <c r="N54" s="36"/>
       <c r="T54" s="37"/>
       <c r="U54" s="36"/>
@@ -6820,19 +6876,19 @@
       <c r="CE54" s="37"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="9"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
       <c r="H55" s="35"/>
       <c r="I55" s="11"/>
       <c r="J55" s="11"/>
       <c r="K55" s="1"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="3"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="8"/>
       <c r="N55" s="36"/>
       <c r="T55" s="37"/>
       <c r="U55" s="36"/>
@@ -6855,19 +6911,19 @@
       <c r="CE55" s="37"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="9"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
+      <c r="A56" s="3"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
       <c r="H56" s="35"/>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
       <c r="K56" s="1"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="3"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="8"/>
       <c r="N56" s="36"/>
       <c r="T56" s="37"/>
       <c r="U56" s="36"/>
@@ -6890,19 +6946,19 @@
       <c r="CE56" s="37"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="9"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
       <c r="H57" s="35"/>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
       <c r="K57" s="1"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="3"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="8"/>
       <c r="N57" s="36"/>
       <c r="T57" s="37"/>
       <c r="U57" s="36"/>
@@ -6925,19 +6981,19 @@
       <c r="CE57" s="37"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="9"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
+      <c r="A58" s="3"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
       <c r="H58" s="35"/>
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
       <c r="K58" s="1"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="3"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="8"/>
       <c r="N58" s="36"/>
       <c r="T58" s="37"/>
       <c r="U58" s="36"/>
@@ -6960,19 +7016,19 @@
       <c r="CE58" s="37"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="9"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
       <c r="H59" s="35"/>
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
       <c r="K59" s="1"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="3"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="8"/>
       <c r="N59" s="36"/>
       <c r="T59" s="37"/>
       <c r="U59" s="36"/>
@@ -6995,19 +7051,19 @@
       <c r="CE59" s="37"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="9"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
+      <c r="A60" s="3"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
       <c r="H60" s="35"/>
       <c r="I60" s="11"/>
       <c r="J60" s="11"/>
       <c r="K60" s="1"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="3"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="8"/>
       <c r="N60" s="36"/>
       <c r="T60" s="37"/>
       <c r="U60" s="36"/>
@@ -7030,19 +7086,19 @@
       <c r="CE60" s="37"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="9"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
       <c r="H61" s="35"/>
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
       <c r="K61" s="1"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="3"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="8"/>
       <c r="N61" s="36"/>
       <c r="T61" s="37"/>
       <c r="U61" s="36"/>
@@ -7065,19 +7121,19 @@
       <c r="CE61" s="37"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="9"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
+      <c r="A62" s="3"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
       <c r="H62" s="35"/>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
       <c r="K62" s="1"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="3"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="8"/>
       <c r="N62" s="36"/>
       <c r="T62" s="37"/>
       <c r="U62" s="36"/>
@@ -7100,19 +7156,19 @@
       <c r="CE62" s="37"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="9"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
+      <c r="A63" s="3"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
       <c r="H63" s="35"/>
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
       <c r="K63" s="1"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="3"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="8"/>
       <c r="N63" s="36"/>
       <c r="T63" s="37"/>
       <c r="U63" s="36"/>
@@ -7135,19 +7191,19 @@
       <c r="CE63" s="37"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="9"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
       <c r="H64" s="35"/>
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>
       <c r="K64" s="1"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="3"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="8"/>
       <c r="N64" s="36"/>
       <c r="T64" s="37"/>
       <c r="U64" s="36"/>
@@ -7170,19 +7226,19 @@
       <c r="CE64" s="37"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="9"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
+      <c r="A65" s="3"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
       <c r="H65" s="35"/>
       <c r="I65" s="11"/>
       <c r="J65" s="11"/>
       <c r="K65" s="1"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="3"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="8"/>
       <c r="N65" s="36"/>
       <c r="T65" s="37"/>
       <c r="U65" s="36"/>
@@ -7205,19 +7261,19 @@
       <c r="CE65" s="37"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="9"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
+      <c r="A66" s="3"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
       <c r="H66" s="35"/>
       <c r="I66" s="11"/>
       <c r="J66" s="11"/>
       <c r="K66" s="1"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="3"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="8"/>
       <c r="N66" s="36"/>
       <c r="T66" s="37"/>
       <c r="U66" s="36"/>
@@ -7240,19 +7296,19 @@
       <c r="CE66" s="37"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="9"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
+      <c r="A67" s="3"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
       <c r="H67" s="35"/>
       <c r="I67" s="11"/>
       <c r="J67" s="11"/>
       <c r="K67" s="1"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="3"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="8"/>
       <c r="N67" s="36"/>
       <c r="T67" s="37"/>
       <c r="U67" s="36"/>
@@ -7275,19 +7331,19 @@
       <c r="CE67" s="37"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="9"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
+      <c r="A68" s="3"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
       <c r="H68" s="35"/>
       <c r="I68" s="11"/>
       <c r="J68" s="11"/>
       <c r="K68" s="1"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="3"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="8"/>
       <c r="N68" s="36"/>
       <c r="T68" s="37"/>
       <c r="U68" s="36"/>
@@ -7310,19 +7366,19 @@
       <c r="CE68" s="37"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="9"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
+      <c r="A69" s="3"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
       <c r="H69" s="35"/>
       <c r="I69" s="11"/>
       <c r="J69" s="11"/>
       <c r="K69" s="1"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="3"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="8"/>
       <c r="N69" s="36"/>
       <c r="T69" s="37"/>
       <c r="U69" s="36"/>
@@ -7345,19 +7401,19 @@
       <c r="CE69" s="37"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="9"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
+      <c r="A70" s="3"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
       <c r="H70" s="35"/>
       <c r="I70" s="11"/>
       <c r="J70" s="11"/>
       <c r="K70" s="1"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="3"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="8"/>
       <c r="N70" s="36"/>
       <c r="T70" s="37"/>
       <c r="U70" s="36"/>
@@ -7380,19 +7436,19 @@
       <c r="CE70" s="37"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="9"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
+      <c r="A71" s="3"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
       <c r="H71" s="35"/>
       <c r="I71" s="11"/>
       <c r="J71" s="11"/>
       <c r="K71" s="1"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="3"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="8"/>
       <c r="N71" s="36"/>
       <c r="T71" s="37"/>
       <c r="U71" s="36"/>
@@ -7415,19 +7471,19 @@
       <c r="CE71" s="37"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="9"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
       <c r="H72" s="35"/>
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
       <c r="K72" s="1"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="3"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="8"/>
       <c r="N72" s="36"/>
       <c r="T72" s="37"/>
       <c r="U72" s="36"/>
@@ -7450,19 +7506,19 @@
       <c r="CE72" s="37"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="9"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
+      <c r="A73" s="3"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
       <c r="H73" s="35"/>
       <c r="I73" s="11"/>
       <c r="J73" s="11"/>
       <c r="K73" s="1"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="3"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="8"/>
       <c r="N73" s="36"/>
       <c r="T73" s="37"/>
       <c r="U73" s="36"/>
@@ -7485,19 +7541,19 @@
       <c r="CE73" s="37"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="9"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
+      <c r="A74" s="3"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
       <c r="H74" s="35"/>
       <c r="I74" s="11"/>
       <c r="J74" s="11"/>
       <c r="K74" s="1"/>
-      <c r="L74" s="5"/>
-      <c r="M74" s="3"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="8"/>
       <c r="N74" s="36"/>
       <c r="T74" s="37"/>
       <c r="U74" s="36"/>
@@ -7520,19 +7576,19 @@
       <c r="CE74" s="37"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="9"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
+      <c r="A75" s="3"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
       <c r="H75" s="35"/>
       <c r="I75" s="11"/>
       <c r="J75" s="11"/>
       <c r="K75" s="1"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="3"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="8"/>
       <c r="N75" s="36"/>
       <c r="T75" s="37"/>
       <c r="U75" s="36"/>
@@ -7555,19 +7611,19 @@
       <c r="CE75" s="37"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="9"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
+      <c r="A76" s="3"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
       <c r="H76" s="35"/>
       <c r="I76" s="11"/>
       <c r="J76" s="11"/>
       <c r="K76" s="1"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="3"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="8"/>
       <c r="N76" s="36"/>
       <c r="T76" s="37"/>
       <c r="U76" s="36"/>
@@ -7590,19 +7646,19 @@
       <c r="CE76" s="37"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="9"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
+      <c r="A77" s="3"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
       <c r="H77" s="35"/>
       <c r="I77" s="11"/>
       <c r="J77" s="11"/>
       <c r="K77" s="1"/>
-      <c r="L77" s="5"/>
-      <c r="M77" s="3"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="8"/>
       <c r="N77" s="36"/>
       <c r="T77" s="37"/>
       <c r="U77" s="36"/>
@@ -7625,19 +7681,19 @@
       <c r="CE77" s="37"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="9"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
+      <c r="A78" s="3"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
       <c r="H78" s="35"/>
       <c r="I78" s="11"/>
       <c r="J78" s="11"/>
       <c r="K78" s="1"/>
-      <c r="L78" s="5"/>
-      <c r="M78" s="3"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="8"/>
       <c r="N78" s="36"/>
       <c r="T78" s="37"/>
       <c r="U78" s="36"/>
@@ -7660,19 +7716,19 @@
       <c r="CE78" s="37"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="9"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
+      <c r="A79" s="3"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
       <c r="H79" s="35"/>
       <c r="I79" s="11"/>
       <c r="J79" s="11"/>
       <c r="K79" s="1"/>
-      <c r="L79" s="5"/>
-      <c r="M79" s="3"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="8"/>
       <c r="N79" s="36"/>
       <c r="T79" s="37"/>
       <c r="U79" s="36"/>
@@ -7695,19 +7751,19 @@
       <c r="CE79" s="37"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="9"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
+      <c r="A80" s="3"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
       <c r="H80" s="35"/>
       <c r="I80" s="11"/>
       <c r="J80" s="11"/>
       <c r="K80" s="1"/>
-      <c r="L80" s="5"/>
-      <c r="M80" s="3"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="8"/>
       <c r="N80" s="36"/>
       <c r="T80" s="37"/>
       <c r="U80" s="36"/>
@@ -7730,19 +7786,19 @@
       <c r="CE80" s="37"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="9"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
+      <c r="A81" s="3"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
       <c r="H81" s="35"/>
       <c r="I81" s="11"/>
       <c r="J81" s="11"/>
       <c r="K81" s="1"/>
-      <c r="L81" s="5"/>
-      <c r="M81" s="3"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="8"/>
       <c r="N81" s="36"/>
       <c r="T81" s="37"/>
       <c r="U81" s="36"/>
@@ -7765,19 +7821,19 @@
       <c r="CE81" s="37"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="9"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
+      <c r="A82" s="3"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
       <c r="H82" s="35"/>
       <c r="I82" s="11"/>
       <c r="J82" s="11"/>
       <c r="K82" s="1"/>
-      <c r="L82" s="5"/>
-      <c r="M82" s="3"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="8"/>
       <c r="N82" s="36"/>
       <c r="T82" s="37"/>
       <c r="U82" s="36"/>
@@ -7800,19 +7856,19 @@
       <c r="CE82" s="37"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="9"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
+      <c r="A83" s="3"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
       <c r="H83" s="35"/>
       <c r="I83" s="11"/>
       <c r="J83" s="11"/>
       <c r="K83" s="1"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="3"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="8"/>
       <c r="N83" s="36"/>
       <c r="T83" s="37"/>
       <c r="U83" s="36"/>
@@ -7835,19 +7891,19 @@
       <c r="CE83" s="37"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="9"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
+      <c r="A84" s="3"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
       <c r="H84" s="35"/>
       <c r="I84" s="11"/>
       <c r="J84" s="11"/>
       <c r="K84" s="1"/>
-      <c r="L84" s="5"/>
-      <c r="M84" s="3"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="8"/>
       <c r="N84" s="36"/>
       <c r="T84" s="37"/>
       <c r="U84" s="36"/>
@@ -7870,19 +7926,19 @@
       <c r="CE84" s="37"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="9"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
+      <c r="A85" s="3"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
       <c r="H85" s="35"/>
       <c r="I85" s="11"/>
       <c r="J85" s="11"/>
       <c r="K85" s="1"/>
-      <c r="L85" s="5"/>
-      <c r="M85" s="3"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="8"/>
       <c r="N85" s="36"/>
       <c r="T85" s="37"/>
       <c r="U85" s="36"/>
@@ -7905,19 +7961,19 @@
       <c r="CE85" s="37"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="9"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
+      <c r="A86" s="3"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
       <c r="H86" s="35"/>
       <c r="I86" s="11"/>
       <c r="J86" s="11"/>
       <c r="K86" s="1"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="3"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="8"/>
       <c r="N86" s="36"/>
       <c r="T86" s="37"/>
       <c r="U86" s="36"/>
@@ -7940,19 +7996,19 @@
       <c r="CE86" s="37"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="9"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
+      <c r="A87" s="3"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
       <c r="H87" s="35"/>
       <c r="I87" s="11"/>
       <c r="J87" s="11"/>
       <c r="K87" s="1"/>
-      <c r="L87" s="5"/>
-      <c r="M87" s="3"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="8"/>
       <c r="N87" s="36"/>
       <c r="T87" s="37"/>
       <c r="U87" s="36"/>
@@ -7975,19 +8031,19 @@
       <c r="CE87" s="37"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="9"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
+      <c r="A88" s="3"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
       <c r="H88" s="35"/>
       <c r="I88" s="11"/>
       <c r="J88" s="11"/>
       <c r="K88" s="1"/>
-      <c r="L88" s="5"/>
-      <c r="M88" s="3"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="8"/>
       <c r="N88" s="36"/>
       <c r="T88" s="37"/>
       <c r="U88" s="36"/>
@@ -8010,19 +8066,19 @@
       <c r="CE88" s="37"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="9"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
+      <c r="A89" s="3"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
       <c r="H89" s="35"/>
       <c r="I89" s="11"/>
       <c r="J89" s="11"/>
       <c r="K89" s="1"/>
-      <c r="L89" s="5"/>
-      <c r="M89" s="3"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="8"/>
       <c r="N89" s="36"/>
       <c r="T89" s="37"/>
       <c r="U89" s="36"/>
@@ -8045,19 +8101,19 @@
       <c r="CE89" s="37"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="9"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
+      <c r="A90" s="3"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
       <c r="H90" s="35"/>
       <c r="I90" s="11"/>
       <c r="J90" s="11"/>
       <c r="K90" s="1"/>
-      <c r="L90" s="5"/>
-      <c r="M90" s="3"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="8"/>
       <c r="N90" s="36"/>
       <c r="T90" s="37"/>
       <c r="U90" s="36"/>
@@ -8080,19 +8136,19 @@
       <c r="CE90" s="37"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="9"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
+      <c r="A91" s="3"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
       <c r="H91" s="35"/>
       <c r="I91" s="11"/>
       <c r="J91" s="11"/>
       <c r="K91" s="1"/>
-      <c r="L91" s="5"/>
-      <c r="M91" s="3"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="8"/>
       <c r="N91" s="36"/>
       <c r="T91" s="37"/>
       <c r="U91" s="36"/>
@@ -8115,19 +8171,19 @@
       <c r="CE91" s="37"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="9"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
+      <c r="A92" s="3"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
       <c r="H92" s="35"/>
       <c r="I92" s="11"/>
       <c r="J92" s="11"/>
       <c r="K92" s="1"/>
-      <c r="L92" s="5"/>
-      <c r="M92" s="3"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="8"/>
       <c r="N92" s="36"/>
       <c r="T92" s="37"/>
       <c r="U92" s="36"/>
@@ -8150,19 +8206,19 @@
       <c r="CE92" s="37"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="9"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
+      <c r="A93" s="3"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
       <c r="H93" s="35"/>
       <c r="I93" s="11"/>
       <c r="J93" s="11"/>
       <c r="K93" s="1"/>
-      <c r="L93" s="5"/>
-      <c r="M93" s="3"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="8"/>
       <c r="N93" s="36"/>
       <c r="T93" s="37"/>
       <c r="U93" s="36"/>
@@ -8185,19 +8241,19 @@
       <c r="CE93" s="37"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="9"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
+      <c r="A94" s="3"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
       <c r="H94" s="35"/>
       <c r="I94" s="11"/>
       <c r="J94" s="11"/>
       <c r="K94" s="1"/>
-      <c r="L94" s="5"/>
-      <c r="M94" s="3"/>
+      <c r="L94" s="10"/>
+      <c r="M94" s="8"/>
       <c r="N94" s="36"/>
       <c r="T94" s="37"/>
       <c r="U94" s="36"/>
@@ -8220,19 +8276,19 @@
       <c r="CE94" s="37"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="9"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="10"/>
+      <c r="A95" s="3"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
       <c r="H95" s="35"/>
       <c r="I95" s="11"/>
       <c r="J95" s="11"/>
       <c r="K95" s="1"/>
-      <c r="L95" s="5"/>
-      <c r="M95" s="3"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="8"/>
       <c r="N95" s="36"/>
       <c r="T95" s="37"/>
       <c r="U95" s="36"/>
@@ -8255,19 +8311,19 @@
       <c r="CE95" s="37"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="9"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
+      <c r="A96" s="3"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
       <c r="H96" s="35"/>
       <c r="I96" s="11"/>
       <c r="J96" s="11"/>
       <c r="K96" s="1"/>
-      <c r="L96" s="5"/>
-      <c r="M96" s="3"/>
+      <c r="L96" s="10"/>
+      <c r="M96" s="8"/>
       <c r="N96" s="36"/>
       <c r="T96" s="37"/>
       <c r="U96" s="36"/>
@@ -8290,19 +8346,19 @@
       <c r="CE96" s="37"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="9"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="10"/>
+      <c r="A97" s="3"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
       <c r="H97" s="35"/>
       <c r="I97" s="11"/>
       <c r="J97" s="11"/>
       <c r="K97" s="1"/>
-      <c r="L97" s="5"/>
-      <c r="M97" s="3"/>
+      <c r="L97" s="10"/>
+      <c r="M97" s="8"/>
       <c r="N97" s="36"/>
       <c r="T97" s="37"/>
       <c r="U97" s="36"/>
@@ -8325,19 +8381,19 @@
       <c r="CE97" s="37"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="9"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
+      <c r="A98" s="3"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
       <c r="H98" s="35"/>
       <c r="I98" s="11"/>
       <c r="J98" s="11"/>
       <c r="K98" s="1"/>
-      <c r="L98" s="5"/>
-      <c r="M98" s="3"/>
+      <c r="L98" s="10"/>
+      <c r="M98" s="8"/>
       <c r="N98" s="36"/>
       <c r="T98" s="37"/>
       <c r="U98" s="36"/>
@@ -8360,19 +8416,19 @@
       <c r="CE98" s="37"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="9"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
+      <c r="A99" s="3"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="14"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
       <c r="H99" s="35"/>
       <c r="I99" s="11"/>
       <c r="J99" s="11"/>
       <c r="K99" s="1"/>
-      <c r="L99" s="5"/>
-      <c r="M99" s="3"/>
+      <c r="L99" s="10"/>
+      <c r="M99" s="8"/>
       <c r="N99" s="36"/>
       <c r="T99" s="37"/>
       <c r="U99" s="36"/>
@@ -8395,19 +8451,19 @@
       <c r="CE99" s="37"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="9"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
+      <c r="A100" s="3"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="14"/>
-      <c r="G100" s="14"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
       <c r="H100" s="35"/>
       <c r="I100" s="11"/>
       <c r="J100" s="11"/>
       <c r="K100" s="1"/>
-      <c r="L100" s="5"/>
-      <c r="M100" s="3"/>
+      <c r="L100" s="10"/>
+      <c r="M100" s="8"/>
       <c r="N100" s="36"/>
       <c r="T100" s="37"/>
       <c r="U100" s="36"/>
@@ -8430,19 +8486,19 @@
       <c r="CE100" s="37"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="9"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="10"/>
+      <c r="A101" s="3"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
       <c r="H101" s="35"/>
       <c r="I101" s="11"/>
       <c r="J101" s="11"/>
       <c r="K101" s="1"/>
-      <c r="L101" s="5"/>
-      <c r="M101" s="3"/>
+      <c r="L101" s="10"/>
+      <c r="M101" s="8"/>
       <c r="N101" s="36"/>
       <c r="T101" s="37"/>
       <c r="U101" s="36"/>
@@ -8465,19 +8521,19 @@
       <c r="CE101" s="37"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="9"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="10"/>
+      <c r="A102" s="3"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="14"/>
-      <c r="G102" s="14"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
       <c r="H102" s="35"/>
       <c r="I102" s="11"/>
       <c r="J102" s="11"/>
       <c r="K102" s="1"/>
-      <c r="L102" s="5"/>
-      <c r="M102" s="3"/>
+      <c r="L102" s="10"/>
+      <c r="M102" s="8"/>
       <c r="N102" s="36"/>
       <c r="T102" s="37"/>
       <c r="U102" s="36"/>
@@ -8500,19 +8556,19 @@
       <c r="CE102" s="37"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="9"/>
-      <c r="B103" s="10"/>
-      <c r="C103" s="10"/>
+      <c r="A103" s="3"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
       <c r="H103" s="35"/>
       <c r="I103" s="11"/>
       <c r="J103" s="11"/>
       <c r="K103" s="1"/>
-      <c r="L103" s="5"/>
-      <c r="M103" s="3"/>
+      <c r="L103" s="10"/>
+      <c r="M103" s="8"/>
       <c r="N103" s="36"/>
       <c r="T103" s="37"/>
       <c r="U103" s="36"/>
@@ -8535,19 +8591,19 @@
       <c r="CE103" s="37"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="9"/>
-      <c r="B104" s="10"/>
-      <c r="C104" s="10"/>
+      <c r="A104" s="3"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
       <c r="H104" s="35"/>
       <c r="I104" s="11"/>
       <c r="J104" s="11"/>
       <c r="K104" s="1"/>
-      <c r="L104" s="5"/>
-      <c r="M104" s="3"/>
+      <c r="L104" s="10"/>
+      <c r="M104" s="8"/>
       <c r="N104" s="36"/>
       <c r="T104" s="37"/>
       <c r="U104" s="36"/>
@@ -8570,19 +8626,19 @@
       <c r="CE104" s="37"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="9"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="10"/>
+      <c r="A105" s="3"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="14"/>
-      <c r="G105" s="14"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
       <c r="H105" s="35"/>
       <c r="I105" s="11"/>
       <c r="J105" s="11"/>
       <c r="K105" s="1"/>
-      <c r="L105" s="5"/>
-      <c r="M105" s="3"/>
+      <c r="L105" s="10"/>
+      <c r="M105" s="8"/>
       <c r="N105" s="36"/>
       <c r="T105" s="37"/>
       <c r="U105" s="36"/>
@@ -8605,19 +8661,19 @@
       <c r="CE105" s="37"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="9"/>
-      <c r="B106" s="10"/>
-      <c r="C106" s="10"/>
+      <c r="A106" s="3"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="14"/>
-      <c r="G106" s="14"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
       <c r="H106" s="35"/>
       <c r="I106" s="11"/>
       <c r="J106" s="11"/>
       <c r="K106" s="1"/>
-      <c r="L106" s="5"/>
-      <c r="M106" s="3"/>
+      <c r="L106" s="10"/>
+      <c r="M106" s="8"/>
       <c r="N106" s="36"/>
       <c r="T106" s="37"/>
       <c r="U106" s="36"/>
@@ -8640,19 +8696,19 @@
       <c r="CE106" s="37"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="9"/>
-      <c r="B107" s="10"/>
-      <c r="C107" s="10"/>
+      <c r="A107" s="3"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="14"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
       <c r="H107" s="35"/>
       <c r="I107" s="11"/>
       <c r="J107" s="11"/>
       <c r="K107" s="1"/>
-      <c r="L107" s="5"/>
-      <c r="M107" s="3"/>
+      <c r="L107" s="10"/>
+      <c r="M107" s="8"/>
       <c r="N107" s="36"/>
       <c r="T107" s="37"/>
       <c r="U107" s="36"/>
@@ -8675,19 +8731,19 @@
       <c r="CE107" s="37"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="9"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
+      <c r="A108" s="3"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="14"/>
-      <c r="G108" s="14"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
       <c r="H108" s="35"/>
       <c r="I108" s="11"/>
       <c r="J108" s="11"/>
       <c r="K108" s="1"/>
-      <c r="L108" s="5"/>
-      <c r="M108" s="3"/>
+      <c r="L108" s="10"/>
+      <c r="M108" s="8"/>
       <c r="N108" s="36"/>
       <c r="T108" s="37"/>
       <c r="U108" s="36"/>
@@ -8710,19 +8766,19 @@
       <c r="CE108" s="37"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="9"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
+      <c r="A109" s="3"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="14"/>
-      <c r="G109" s="14"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
       <c r="H109" s="35"/>
       <c r="I109" s="11"/>
       <c r="J109" s="11"/>
       <c r="K109" s="1"/>
-      <c r="L109" s="5"/>
-      <c r="M109" s="3"/>
+      <c r="L109" s="10"/>
+      <c r="M109" s="8"/>
       <c r="N109" s="36"/>
       <c r="T109" s="37"/>
       <c r="U109" s="36"/>
@@ -8745,19 +8801,19 @@
       <c r="CE109" s="37"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="9"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
+      <c r="A110" s="3"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
-      <c r="F110" s="14"/>
-      <c r="G110" s="14"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
       <c r="H110" s="35"/>
       <c r="I110" s="11"/>
       <c r="J110" s="11"/>
       <c r="K110" s="1"/>
-      <c r="L110" s="5"/>
-      <c r="M110" s="3"/>
+      <c r="L110" s="10"/>
+      <c r="M110" s="8"/>
       <c r="N110" s="36"/>
       <c r="T110" s="37"/>
       <c r="U110" s="36"/>
@@ -8780,19 +8836,19 @@
       <c r="CE110" s="37"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="9"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="10"/>
+      <c r="A111" s="3"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="14"/>
-      <c r="G111" s="14"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
       <c r="H111" s="35"/>
       <c r="I111" s="11"/>
       <c r="J111" s="11"/>
       <c r="K111" s="1"/>
-      <c r="L111" s="5"/>
-      <c r="M111" s="3"/>
+      <c r="L111" s="10"/>
+      <c r="M111" s="8"/>
       <c r="N111" s="36"/>
       <c r="T111" s="37"/>
       <c r="U111" s="36"/>
@@ -8815,19 +8871,19 @@
       <c r="CE111" s="37"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="9"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="10"/>
+      <c r="A112" s="3"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="14"/>
-      <c r="G112" s="14"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
       <c r="H112" s="35"/>
       <c r="I112" s="11"/>
       <c r="J112" s="11"/>
       <c r="K112" s="1"/>
-      <c r="L112" s="5"/>
-      <c r="M112" s="3"/>
+      <c r="L112" s="10"/>
+      <c r="M112" s="8"/>
       <c r="N112" s="36"/>
       <c r="T112" s="37"/>
       <c r="U112" s="36"/>
@@ -8850,19 +8906,19 @@
       <c r="CE112" s="37"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="9"/>
-      <c r="B113" s="10"/>
-      <c r="C113" s="10"/>
+      <c r="A113" s="3"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="14"/>
-      <c r="G113" s="14"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
       <c r="H113" s="35"/>
       <c r="I113" s="11"/>
       <c r="J113" s="11"/>
       <c r="K113" s="1"/>
-      <c r="L113" s="5"/>
-      <c r="M113" s="3"/>
+      <c r="L113" s="10"/>
+      <c r="M113" s="8"/>
       <c r="N113" s="36"/>
       <c r="T113" s="37"/>
       <c r="U113" s="36"/>
@@ -8885,19 +8941,19 @@
       <c r="CE113" s="37"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="9"/>
-      <c r="B114" s="10"/>
-      <c r="C114" s="10"/>
+      <c r="A114" s="3"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="14"/>
-      <c r="G114" s="14"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
       <c r="H114" s="35"/>
       <c r="I114" s="11"/>
       <c r="J114" s="11"/>
       <c r="K114" s="1"/>
-      <c r="L114" s="5"/>
-      <c r="M114" s="3"/>
+      <c r="L114" s="10"/>
+      <c r="M114" s="8"/>
       <c r="N114" s="36"/>
       <c r="T114" s="37"/>
       <c r="U114" s="36"/>
@@ -8920,19 +8976,19 @@
       <c r="CE114" s="37"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="9"/>
-      <c r="B115" s="10"/>
-      <c r="C115" s="10"/>
+      <c r="A115" s="3"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="14"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
       <c r="H115" s="35"/>
       <c r="I115" s="11"/>
       <c r="J115" s="11"/>
       <c r="K115" s="1"/>
-      <c r="L115" s="5"/>
-      <c r="M115" s="3"/>
+      <c r="L115" s="10"/>
+      <c r="M115" s="8"/>
       <c r="N115" s="36"/>
       <c r="T115" s="37"/>
       <c r="U115" s="36"/>
@@ -8955,19 +9011,19 @@
       <c r="CE115" s="37"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="9"/>
-      <c r="B116" s="10"/>
-      <c r="C116" s="10"/>
+      <c r="A116" s="3"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="14"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
       <c r="H116" s="35"/>
       <c r="I116" s="11"/>
       <c r="J116" s="11"/>
       <c r="K116" s="1"/>
-      <c r="L116" s="5"/>
-      <c r="M116" s="3"/>
+      <c r="L116" s="10"/>
+      <c r="M116" s="8"/>
       <c r="N116" s="36"/>
       <c r="T116" s="37"/>
       <c r="U116" s="36"/>
@@ -8990,19 +9046,19 @@
       <c r="CE116" s="37"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="9"/>
-      <c r="B117" s="10"/>
-      <c r="C117" s="10"/>
+      <c r="A117" s="3"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="14"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
       <c r="H117" s="35"/>
       <c r="I117" s="11"/>
       <c r="J117" s="11"/>
       <c r="K117" s="1"/>
-      <c r="L117" s="5"/>
-      <c r="M117" s="3"/>
+      <c r="L117" s="10"/>
+      <c r="M117" s="8"/>
       <c r="N117" s="36"/>
       <c r="T117" s="37"/>
       <c r="U117" s="36"/>
@@ -9025,19 +9081,19 @@
       <c r="CE117" s="37"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="9"/>
-      <c r="B118" s="10"/>
-      <c r="C118" s="10"/>
+      <c r="A118" s="3"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="14"/>
-      <c r="G118" s="14"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
       <c r="H118" s="35"/>
       <c r="I118" s="11"/>
       <c r="J118" s="11"/>
       <c r="K118" s="1"/>
-      <c r="L118" s="5"/>
-      <c r="M118" s="3"/>
+      <c r="L118" s="10"/>
+      <c r="M118" s="8"/>
       <c r="N118" s="36"/>
       <c r="T118" s="37"/>
       <c r="U118" s="36"/>
@@ -9060,19 +9116,19 @@
       <c r="CE118" s="37"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="9"/>
-      <c r="B119" s="10"/>
-      <c r="C119" s="10"/>
+      <c r="A119" s="3"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="14"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
       <c r="H119" s="35"/>
       <c r="I119" s="11"/>
       <c r="J119" s="11"/>
       <c r="K119" s="1"/>
-      <c r="L119" s="5"/>
-      <c r="M119" s="3"/>
+      <c r="L119" s="10"/>
+      <c r="M119" s="8"/>
       <c r="N119" s="36"/>
       <c r="T119" s="37"/>
       <c r="U119" s="36"/>
@@ -9095,19 +9151,19 @@
       <c r="CE119" s="37"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="9"/>
-      <c r="B120" s="10"/>
-      <c r="C120" s="10"/>
+      <c r="A120" s="3"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="14"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
       <c r="H120" s="35"/>
       <c r="I120" s="11"/>
       <c r="J120" s="11"/>
       <c r="K120" s="1"/>
-      <c r="L120" s="5"/>
-      <c r="M120" s="3"/>
+      <c r="L120" s="10"/>
+      <c r="M120" s="8"/>
       <c r="N120" s="36"/>
       <c r="T120" s="37"/>
       <c r="U120" s="36"/>
@@ -9130,19 +9186,19 @@
       <c r="CE120" s="37"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="9"/>
-      <c r="B121" s="10"/>
-      <c r="C121" s="10"/>
+      <c r="A121" s="3"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="14"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
       <c r="H121" s="35"/>
       <c r="I121" s="11"/>
       <c r="J121" s="11"/>
       <c r="K121" s="1"/>
-      <c r="L121" s="5"/>
-      <c r="M121" s="3"/>
+      <c r="L121" s="10"/>
+      <c r="M121" s="8"/>
       <c r="N121" s="36"/>
       <c r="T121" s="37"/>
       <c r="U121" s="36"/>
@@ -9165,19 +9221,19 @@
       <c r="CE121" s="37"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="9"/>
-      <c r="B122" s="10"/>
-      <c r="C122" s="10"/>
+      <c r="A122" s="3"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="14"/>
-      <c r="G122" s="14"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
       <c r="H122" s="35"/>
       <c r="I122" s="11"/>
       <c r="J122" s="11"/>
       <c r="K122" s="1"/>
-      <c r="L122" s="5"/>
-      <c r="M122" s="3"/>
+      <c r="L122" s="10"/>
+      <c r="M122" s="8"/>
       <c r="N122" s="36"/>
       <c r="T122" s="37"/>
       <c r="U122" s="36"/>
@@ -9200,19 +9256,19 @@
       <c r="CE122" s="37"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="9"/>
-      <c r="B123" s="10"/>
-      <c r="C123" s="10"/>
+      <c r="A123" s="3"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="14"/>
-      <c r="G123" s="14"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
       <c r="H123" s="35"/>
       <c r="I123" s="11"/>
       <c r="J123" s="11"/>
       <c r="K123" s="1"/>
-      <c r="L123" s="5"/>
-      <c r="M123" s="3"/>
+      <c r="L123" s="10"/>
+      <c r="M123" s="8"/>
       <c r="N123" s="36"/>
       <c r="T123" s="37"/>
       <c r="U123" s="36"/>
@@ -9235,19 +9291,19 @@
       <c r="CE123" s="37"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="9"/>
-      <c r="B124" s="10"/>
-      <c r="C124" s="10"/>
+      <c r="A124" s="3"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="14"/>
-      <c r="G124" s="14"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
       <c r="H124" s="35"/>
       <c r="I124" s="11"/>
       <c r="J124" s="11"/>
       <c r="K124" s="1"/>
-      <c r="L124" s="5"/>
-      <c r="M124" s="3"/>
+      <c r="L124" s="10"/>
+      <c r="M124" s="8"/>
       <c r="N124" s="36"/>
       <c r="T124" s="37"/>
       <c r="U124" s="36"/>
@@ -9270,19 +9326,19 @@
       <c r="CE124" s="37"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="9"/>
-      <c r="B125" s="10"/>
-      <c r="C125" s="10"/>
+      <c r="A125" s="3"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="14"/>
-      <c r="G125" s="14"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
       <c r="H125" s="35"/>
       <c r="I125" s="11"/>
       <c r="J125" s="11"/>
       <c r="K125" s="1"/>
-      <c r="L125" s="5"/>
-      <c r="M125" s="3"/>
+      <c r="L125" s="10"/>
+      <c r="M125" s="8"/>
       <c r="N125" s="36"/>
       <c r="T125" s="37"/>
       <c r="U125" s="36"/>
@@ -9305,19 +9361,19 @@
       <c r="CE125" s="37"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="9"/>
-      <c r="B126" s="10"/>
-      <c r="C126" s="10"/>
+      <c r="A126" s="3"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="14"/>
-      <c r="G126" s="14"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
       <c r="H126" s="35"/>
       <c r="I126" s="11"/>
       <c r="J126" s="11"/>
       <c r="K126" s="1"/>
-      <c r="L126" s="5"/>
-      <c r="M126" s="3"/>
+      <c r="L126" s="10"/>
+      <c r="M126" s="8"/>
       <c r="N126" s="36"/>
       <c r="T126" s="37"/>
       <c r="U126" s="36"/>
@@ -9340,19 +9396,19 @@
       <c r="CE126" s="37"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="9"/>
-      <c r="B127" s="10"/>
-      <c r="C127" s="10"/>
+      <c r="A127" s="3"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="14"/>
-      <c r="G127" s="14"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
       <c r="H127" s="35"/>
       <c r="I127" s="11"/>
       <c r="J127" s="11"/>
       <c r="K127" s="1"/>
-      <c r="L127" s="5"/>
-      <c r="M127" s="3"/>
+      <c r="L127" s="10"/>
+      <c r="M127" s="8"/>
       <c r="N127" s="36"/>
       <c r="T127" s="37"/>
       <c r="U127" s="36"/>
@@ -9375,19 +9431,19 @@
       <c r="CE127" s="37"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="9"/>
-      <c r="B128" s="10"/>
-      <c r="C128" s="10"/>
+      <c r="A128" s="3"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="14"/>
-      <c r="G128" s="14"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
       <c r="H128" s="35"/>
       <c r="I128" s="11"/>
       <c r="J128" s="11"/>
       <c r="K128" s="1"/>
-      <c r="L128" s="5"/>
-      <c r="M128" s="3"/>
+      <c r="L128" s="10"/>
+      <c r="M128" s="8"/>
       <c r="N128" s="36"/>
       <c r="T128" s="37"/>
       <c r="U128" s="36"/>
@@ -9410,19 +9466,19 @@
       <c r="CE128" s="37"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="9"/>
-      <c r="B129" s="10"/>
-      <c r="C129" s="10"/>
+      <c r="A129" s="3"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="14"/>
-      <c r="G129" s="14"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
       <c r="H129" s="35"/>
       <c r="I129" s="11"/>
       <c r="J129" s="11"/>
       <c r="K129" s="1"/>
-      <c r="L129" s="5"/>
-      <c r="M129" s="3"/>
+      <c r="L129" s="10"/>
+      <c r="M129" s="8"/>
       <c r="N129" s="36"/>
       <c r="T129" s="37"/>
       <c r="U129" s="36"/>
@@ -9445,19 +9501,19 @@
       <c r="CE129" s="37"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="9"/>
-      <c r="B130" s="10"/>
-      <c r="C130" s="10"/>
+      <c r="A130" s="3"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="14"/>
-      <c r="G130" s="14"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
       <c r="H130" s="35"/>
       <c r="I130" s="11"/>
       <c r="J130" s="11"/>
       <c r="K130" s="1"/>
-      <c r="L130" s="5"/>
-      <c r="M130" s="3"/>
+      <c r="L130" s="10"/>
+      <c r="M130" s="8"/>
       <c r="N130" s="36"/>
       <c r="T130" s="37"/>
       <c r="U130" s="36"/>
@@ -9480,19 +9536,19 @@
       <c r="CE130" s="37"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="9"/>
-      <c r="B131" s="10"/>
-      <c r="C131" s="10"/>
+      <c r="A131" s="3"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="14"/>
-      <c r="G131" s="14"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
       <c r="H131" s="35"/>
       <c r="I131" s="11"/>
       <c r="J131" s="11"/>
       <c r="K131" s="1"/>
-      <c r="L131" s="5"/>
-      <c r="M131" s="3"/>
+      <c r="L131" s="10"/>
+      <c r="M131" s="8"/>
       <c r="N131" s="36"/>
       <c r="T131" s="37"/>
       <c r="U131" s="36"/>
@@ -9515,19 +9571,19 @@
       <c r="CE131" s="37"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="9"/>
-      <c r="B132" s="10"/>
-      <c r="C132" s="10"/>
+      <c r="A132" s="3"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="14"/>
-      <c r="G132" s="14"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
       <c r="H132" s="35"/>
       <c r="I132" s="11"/>
       <c r="J132" s="11"/>
       <c r="K132" s="1"/>
-      <c r="L132" s="5"/>
-      <c r="M132" s="3"/>
+      <c r="L132" s="10"/>
+      <c r="M132" s="8"/>
       <c r="N132" s="36"/>
       <c r="T132" s="37"/>
       <c r="U132" s="36"/>
@@ -9550,19 +9606,19 @@
       <c r="CE132" s="37"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="9"/>
-      <c r="B133" s="10"/>
-      <c r="C133" s="10"/>
+      <c r="A133" s="3"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="14"/>
-      <c r="G133" s="14"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
       <c r="H133" s="35"/>
       <c r="I133" s="11"/>
       <c r="J133" s="11"/>
       <c r="K133" s="1"/>
-      <c r="L133" s="5"/>
-      <c r="M133" s="3"/>
+      <c r="L133" s="10"/>
+      <c r="M133" s="8"/>
       <c r="N133" s="36"/>
       <c r="T133" s="37"/>
       <c r="U133" s="36"/>
@@ -9585,19 +9641,19 @@
       <c r="CE133" s="37"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="9"/>
-      <c r="B134" s="10"/>
-      <c r="C134" s="10"/>
+      <c r="A134" s="3"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="14"/>
-      <c r="G134" s="14"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
       <c r="H134" s="35"/>
       <c r="I134" s="11"/>
       <c r="J134" s="11"/>
       <c r="K134" s="1"/>
-      <c r="L134" s="5"/>
-      <c r="M134" s="3"/>
+      <c r="L134" s="10"/>
+      <c r="M134" s="8"/>
       <c r="N134" s="36"/>
       <c r="T134" s="37"/>
       <c r="U134" s="36"/>
@@ -9620,19 +9676,19 @@
       <c r="CE134" s="37"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="9"/>
-      <c r="B135" s="10"/>
-      <c r="C135" s="10"/>
+      <c r="A135" s="3"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
-      <c r="F135" s="14"/>
-      <c r="G135" s="14"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
       <c r="H135" s="35"/>
       <c r="I135" s="11"/>
       <c r="J135" s="11"/>
       <c r="K135" s="1"/>
-      <c r="L135" s="5"/>
-      <c r="M135" s="3"/>
+      <c r="L135" s="10"/>
+      <c r="M135" s="8"/>
       <c r="N135" s="36"/>
       <c r="T135" s="37"/>
       <c r="U135" s="36"/>
@@ -9655,19 +9711,19 @@
       <c r="CE135" s="37"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="9"/>
-      <c r="B136" s="10"/>
-      <c r="C136" s="10"/>
+      <c r="A136" s="3"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="14"/>
-      <c r="G136" s="14"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
       <c r="H136" s="35"/>
       <c r="I136" s="11"/>
       <c r="J136" s="11"/>
       <c r="K136" s="1"/>
-      <c r="L136" s="5"/>
-      <c r="M136" s="3"/>
+      <c r="L136" s="10"/>
+      <c r="M136" s="8"/>
       <c r="N136" s="36"/>
       <c r="T136" s="37"/>
       <c r="U136" s="36"/>
@@ -9690,19 +9746,19 @@
       <c r="CE136" s="37"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="9"/>
-      <c r="B137" s="10"/>
-      <c r="C137" s="10"/>
+      <c r="A137" s="3"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="14"/>
-      <c r="G137" s="14"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="12"/>
       <c r="H137" s="35"/>
       <c r="I137" s="11"/>
       <c r="J137" s="11"/>
       <c r="K137" s="1"/>
-      <c r="L137" s="5"/>
-      <c r="M137" s="3"/>
+      <c r="L137" s="10"/>
+      <c r="M137" s="8"/>
       <c r="N137" s="36"/>
       <c r="T137" s="37"/>
       <c r="U137" s="36"/>
@@ -9725,19 +9781,19 @@
       <c r="CE137" s="37"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="9"/>
-      <c r="B138" s="10"/>
-      <c r="C138" s="10"/>
+      <c r="A138" s="3"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
-      <c r="F138" s="14"/>
-      <c r="G138" s="14"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
       <c r="H138" s="35"/>
       <c r="I138" s="11"/>
       <c r="J138" s="11"/>
       <c r="K138" s="1"/>
-      <c r="L138" s="5"/>
-      <c r="M138" s="3"/>
+      <c r="L138" s="10"/>
+      <c r="M138" s="8"/>
       <c r="N138" s="36"/>
       <c r="T138" s="37"/>
       <c r="U138" s="36"/>
@@ -9760,19 +9816,19 @@
       <c r="CE138" s="37"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="9"/>
-      <c r="B139" s="10"/>
-      <c r="C139" s="10"/>
+      <c r="A139" s="3"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
-      <c r="F139" s="14"/>
-      <c r="G139" s="14"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
       <c r="H139" s="35"/>
       <c r="I139" s="11"/>
       <c r="J139" s="11"/>
       <c r="K139" s="1"/>
-      <c r="L139" s="5"/>
-      <c r="M139" s="3"/>
+      <c r="L139" s="10"/>
+      <c r="M139" s="8"/>
       <c r="N139" s="36"/>
       <c r="T139" s="37"/>
       <c r="U139" s="36"/>
@@ -9795,19 +9851,19 @@
       <c r="CE139" s="37"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="9"/>
-      <c r="B140" s="10"/>
-      <c r="C140" s="10"/>
+      <c r="A140" s="3"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
-      <c r="F140" s="14"/>
-      <c r="G140" s="14"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="12"/>
       <c r="H140" s="35"/>
       <c r="I140" s="11"/>
       <c r="J140" s="11"/>
       <c r="K140" s="1"/>
-      <c r="L140" s="5"/>
-      <c r="M140" s="3"/>
+      <c r="L140" s="10"/>
+      <c r="M140" s="8"/>
       <c r="N140" s="36"/>
       <c r="T140" s="37"/>
       <c r="U140" s="36"/>
@@ -9830,19 +9886,19 @@
       <c r="CE140" s="37"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="9"/>
-      <c r="B141" s="10"/>
-      <c r="C141" s="10"/>
+      <c r="A141" s="3"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="14"/>
-      <c r="G141" s="14"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12"/>
       <c r="H141" s="35"/>
       <c r="I141" s="11"/>
       <c r="J141" s="11"/>
       <c r="K141" s="1"/>
-      <c r="L141" s="5"/>
-      <c r="M141" s="3"/>
+      <c r="L141" s="10"/>
+      <c r="M141" s="8"/>
       <c r="N141" s="36"/>
       <c r="T141" s="37"/>
       <c r="U141" s="36"/>
@@ -9865,19 +9921,19 @@
       <c r="CE141" s="37"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="9"/>
-      <c r="B142" s="10"/>
-      <c r="C142" s="10"/>
+      <c r="A142" s="3"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
-      <c r="F142" s="14"/>
-      <c r="G142" s="14"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
       <c r="H142" s="35"/>
       <c r="I142" s="11"/>
       <c r="J142" s="11"/>
       <c r="K142" s="1"/>
-      <c r="L142" s="5"/>
-      <c r="M142" s="3"/>
+      <c r="L142" s="10"/>
+      <c r="M142" s="8"/>
       <c r="N142" s="36"/>
       <c r="T142" s="37"/>
       <c r="U142" s="36"/>
@@ -9900,19 +9956,19 @@
       <c r="CE142" s="37"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="9"/>
-      <c r="B143" s="10"/>
-      <c r="C143" s="10"/>
+      <c r="A143" s="3"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
-      <c r="F143" s="14"/>
-      <c r="G143" s="14"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
       <c r="H143" s="35"/>
       <c r="I143" s="11"/>
       <c r="J143" s="11"/>
       <c r="K143" s="1"/>
-      <c r="L143" s="5"/>
-      <c r="M143" s="3"/>
+      <c r="L143" s="10"/>
+      <c r="M143" s="8"/>
       <c r="N143" s="36"/>
       <c r="T143" s="37"/>
       <c r="U143" s="36"/>
@@ -9935,19 +9991,19 @@
       <c r="CE143" s="37"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="9"/>
-      <c r="B144" s="10"/>
-      <c r="C144" s="10"/>
+      <c r="A144" s="3"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
-      <c r="F144" s="14"/>
-      <c r="G144" s="14"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="12"/>
       <c r="H144" s="35"/>
       <c r="I144" s="11"/>
       <c r="J144" s="11"/>
       <c r="K144" s="1"/>
-      <c r="L144" s="5"/>
-      <c r="M144" s="3"/>
+      <c r="L144" s="10"/>
+      <c r="M144" s="8"/>
       <c r="N144" s="36"/>
       <c r="T144" s="37"/>
       <c r="U144" s="36"/>
@@ -9970,19 +10026,19 @@
       <c r="CE144" s="37"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="9"/>
-      <c r="B145" s="10"/>
-      <c r="C145" s="10"/>
+      <c r="A145" s="3"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
-      <c r="F145" s="14"/>
-      <c r="G145" s="14"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12"/>
       <c r="H145" s="35"/>
       <c r="I145" s="11"/>
       <c r="J145" s="11"/>
       <c r="K145" s="1"/>
-      <c r="L145" s="5"/>
-      <c r="M145" s="3"/>
+      <c r="L145" s="10"/>
+      <c r="M145" s="8"/>
       <c r="N145" s="36"/>
       <c r="T145" s="37"/>
       <c r="U145" s="36"/>
@@ -10005,19 +10061,19 @@
       <c r="CE145" s="37"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="9"/>
-      <c r="B146" s="10"/>
-      <c r="C146" s="10"/>
+      <c r="A146" s="3"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
-      <c r="F146" s="14"/>
-      <c r="G146" s="14"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="12"/>
       <c r="H146" s="35"/>
       <c r="I146" s="11"/>
       <c r="J146" s="11"/>
       <c r="K146" s="1"/>
-      <c r="L146" s="5"/>
-      <c r="M146" s="3"/>
+      <c r="L146" s="10"/>
+      <c r="M146" s="8"/>
       <c r="N146" s="36"/>
       <c r="T146" s="37"/>
       <c r="U146" s="36"/>
@@ -10040,19 +10096,19 @@
       <c r="CE146" s="37"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="9"/>
-      <c r="B147" s="10"/>
-      <c r="C147" s="10"/>
+      <c r="A147" s="3"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
-      <c r="F147" s="14"/>
-      <c r="G147" s="14"/>
+      <c r="F147" s="12"/>
+      <c r="G147" s="12"/>
       <c r="H147" s="35"/>
       <c r="I147" s="11"/>
       <c r="J147" s="11"/>
       <c r="K147" s="1"/>
-      <c r="L147" s="5"/>
-      <c r="M147" s="3"/>
+      <c r="L147" s="10"/>
+      <c r="M147" s="8"/>
       <c r="N147" s="36"/>
       <c r="T147" s="37"/>
       <c r="U147" s="36"/>
@@ -10075,19 +10131,19 @@
       <c r="CE147" s="37"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="9"/>
-      <c r="B148" s="10"/>
-      <c r="C148" s="10"/>
+      <c r="A148" s="3"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
-      <c r="F148" s="14"/>
-      <c r="G148" s="14"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="12"/>
       <c r="H148" s="35"/>
       <c r="I148" s="11"/>
       <c r="J148" s="11"/>
       <c r="K148" s="1"/>
-      <c r="L148" s="5"/>
-      <c r="M148" s="3"/>
+      <c r="L148" s="10"/>
+      <c r="M148" s="8"/>
       <c r="N148" s="36"/>
       <c r="T148" s="37"/>
       <c r="U148" s="36"/>
@@ -10110,19 +10166,19 @@
       <c r="CE148" s="37"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="9"/>
-      <c r="B149" s="10"/>
-      <c r="C149" s="10"/>
+      <c r="A149" s="3"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
-      <c r="F149" s="14"/>
-      <c r="G149" s="14"/>
+      <c r="F149" s="12"/>
+      <c r="G149" s="12"/>
       <c r="H149" s="35"/>
       <c r="I149" s="11"/>
       <c r="J149" s="11"/>
       <c r="K149" s="1"/>
-      <c r="L149" s="5"/>
-      <c r="M149" s="3"/>
+      <c r="L149" s="10"/>
+      <c r="M149" s="8"/>
       <c r="N149" s="36"/>
       <c r="T149" s="37"/>
       <c r="U149" s="36"/>
@@ -10145,19 +10201,19 @@
       <c r="CE149" s="37"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="9"/>
-      <c r="B150" s="10"/>
-      <c r="C150" s="10"/>
+      <c r="A150" s="3"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
-      <c r="F150" s="14"/>
-      <c r="G150" s="14"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
       <c r="H150" s="35"/>
       <c r="I150" s="11"/>
       <c r="J150" s="11"/>
       <c r="K150" s="1"/>
-      <c r="L150" s="5"/>
-      <c r="M150" s="3"/>
+      <c r="L150" s="10"/>
+      <c r="M150" s="8"/>
       <c r="N150" s="36"/>
       <c r="T150" s="37"/>
       <c r="U150" s="36"/>
@@ -10180,19 +10236,19 @@
       <c r="CE150" s="37"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="9"/>
-      <c r="B151" s="10"/>
-      <c r="C151" s="10"/>
+      <c r="A151" s="3"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
-      <c r="F151" s="14"/>
-      <c r="G151" s="14"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="12"/>
       <c r="H151" s="35"/>
       <c r="I151" s="11"/>
       <c r="J151" s="11"/>
       <c r="K151" s="1"/>
-      <c r="L151" s="5"/>
-      <c r="M151" s="3"/>
+      <c r="L151" s="10"/>
+      <c r="M151" s="8"/>
       <c r="N151" s="36"/>
       <c r="T151" s="37"/>
       <c r="U151" s="36"/>
@@ -10215,19 +10271,19 @@
       <c r="CE151" s="37"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="9"/>
-      <c r="B152" s="10"/>
-      <c r="C152" s="10"/>
+      <c r="A152" s="3"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
-      <c r="F152" s="14"/>
-      <c r="G152" s="14"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="12"/>
       <c r="H152" s="35"/>
       <c r="I152" s="11"/>
       <c r="J152" s="11"/>
       <c r="K152" s="1"/>
-      <c r="L152" s="5"/>
-      <c r="M152" s="3"/>
+      <c r="L152" s="10"/>
+      <c r="M152" s="8"/>
       <c r="N152" s="36"/>
       <c r="T152" s="37"/>
       <c r="U152" s="36"/>
@@ -10250,19 +10306,19 @@
       <c r="CE152" s="37"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="9"/>
-      <c r="B153" s="10"/>
-      <c r="C153" s="10"/>
+      <c r="A153" s="3"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
-      <c r="F153" s="14"/>
-      <c r="G153" s="14"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
       <c r="H153" s="35"/>
       <c r="I153" s="11"/>
       <c r="J153" s="11"/>
       <c r="K153" s="1"/>
-      <c r="L153" s="5"/>
-      <c r="M153" s="3"/>
+      <c r="L153" s="10"/>
+      <c r="M153" s="8"/>
       <c r="N153" s="36"/>
       <c r="T153" s="37"/>
       <c r="U153" s="36"/>
@@ -10285,19 +10341,19 @@
       <c r="CE153" s="37"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="9"/>
-      <c r="B154" s="10"/>
-      <c r="C154" s="10"/>
+      <c r="A154" s="3"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
-      <c r="F154" s="14"/>
-      <c r="G154" s="14"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
       <c r="H154" s="35"/>
       <c r="I154" s="11"/>
       <c r="J154" s="11"/>
       <c r="K154" s="1"/>
-      <c r="L154" s="5"/>
-      <c r="M154" s="3"/>
+      <c r="L154" s="10"/>
+      <c r="M154" s="8"/>
       <c r="N154" s="36"/>
       <c r="T154" s="37"/>
       <c r="U154" s="36"/>
@@ -10320,19 +10376,19 @@
       <c r="CE154" s="37"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="9"/>
-      <c r="B155" s="10"/>
-      <c r="C155" s="10"/>
+      <c r="A155" s="3"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
-      <c r="F155" s="14"/>
-      <c r="G155" s="14"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="12"/>
       <c r="H155" s="35"/>
       <c r="I155" s="11"/>
       <c r="J155" s="11"/>
       <c r="K155" s="1"/>
-      <c r="L155" s="5"/>
-      <c r="M155" s="3"/>
+      <c r="L155" s="10"/>
+      <c r="M155" s="8"/>
       <c r="N155" s="36"/>
       <c r="T155" s="37"/>
       <c r="U155" s="36"/>
@@ -10355,19 +10411,19 @@
       <c r="CE155" s="37"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="9"/>
-      <c r="B156" s="10"/>
-      <c r="C156" s="10"/>
+      <c r="A156" s="3"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
-      <c r="F156" s="14"/>
-      <c r="G156" s="14"/>
+      <c r="F156" s="12"/>
+      <c r="G156" s="12"/>
       <c r="H156" s="35"/>
       <c r="I156" s="11"/>
       <c r="J156" s="11"/>
       <c r="K156" s="1"/>
-      <c r="L156" s="5"/>
-      <c r="M156" s="3"/>
+      <c r="L156" s="10"/>
+      <c r="M156" s="8"/>
       <c r="N156" s="36"/>
       <c r="T156" s="37"/>
       <c r="U156" s="36"/>
@@ -10390,19 +10446,19 @@
       <c r="CE156" s="37"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="9"/>
-      <c r="B157" s="10"/>
-      <c r="C157" s="10"/>
+      <c r="A157" s="3"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
-      <c r="F157" s="14"/>
-      <c r="G157" s="14"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="12"/>
       <c r="H157" s="35"/>
       <c r="I157" s="11"/>
       <c r="J157" s="11"/>
       <c r="K157" s="1"/>
-      <c r="L157" s="5"/>
-      <c r="M157" s="3"/>
+      <c r="L157" s="10"/>
+      <c r="M157" s="8"/>
       <c r="N157" s="36"/>
       <c r="T157" s="37"/>
       <c r="U157" s="36"/>
@@ -10425,19 +10481,19 @@
       <c r="CE157" s="37"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="9"/>
-      <c r="B158" s="10"/>
-      <c r="C158" s="10"/>
+      <c r="A158" s="3"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
-      <c r="F158" s="14"/>
-      <c r="G158" s="14"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12"/>
       <c r="H158" s="35"/>
       <c r="I158" s="11"/>
       <c r="J158" s="11"/>
       <c r="K158" s="1"/>
-      <c r="L158" s="5"/>
-      <c r="M158" s="3"/>
+      <c r="L158" s="10"/>
+      <c r="M158" s="8"/>
       <c r="N158" s="36"/>
       <c r="T158" s="37"/>
       <c r="U158" s="36"/>
@@ -10460,19 +10516,19 @@
       <c r="CE158" s="37"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="9"/>
-      <c r="B159" s="10"/>
-      <c r="C159" s="10"/>
+      <c r="A159" s="3"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
-      <c r="F159" s="14"/>
-      <c r="G159" s="14"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="12"/>
       <c r="H159" s="35"/>
       <c r="I159" s="11"/>
       <c r="J159" s="11"/>
       <c r="K159" s="1"/>
-      <c r="L159" s="5"/>
-      <c r="M159" s="3"/>
+      <c r="L159" s="10"/>
+      <c r="M159" s="8"/>
       <c r="N159" s="36"/>
       <c r="T159" s="37"/>
       <c r="U159" s="36"/>
@@ -10495,19 +10551,19 @@
       <c r="CE159" s="37"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="9"/>
-      <c r="B160" s="10"/>
-      <c r="C160" s="10"/>
+      <c r="A160" s="3"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
-      <c r="F160" s="14"/>
-      <c r="G160" s="14"/>
+      <c r="F160" s="12"/>
+      <c r="G160" s="12"/>
       <c r="H160" s="35"/>
       <c r="I160" s="11"/>
       <c r="J160" s="11"/>
       <c r="K160" s="1"/>
-      <c r="L160" s="5"/>
-      <c r="M160" s="3"/>
+      <c r="L160" s="10"/>
+      <c r="M160" s="8"/>
       <c r="N160" s="36"/>
       <c r="T160" s="37"/>
       <c r="U160" s="36"/>
@@ -10530,19 +10586,19 @@
       <c r="CE160" s="37"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="9"/>
-      <c r="B161" s="10"/>
-      <c r="C161" s="10"/>
+      <c r="A161" s="3"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
-      <c r="F161" s="14"/>
-      <c r="G161" s="14"/>
+      <c r="F161" s="12"/>
+      <c r="G161" s="12"/>
       <c r="H161" s="35"/>
       <c r="I161" s="11"/>
       <c r="J161" s="11"/>
       <c r="K161" s="1"/>
-      <c r="L161" s="5"/>
-      <c r="M161" s="3"/>
+      <c r="L161" s="10"/>
+      <c r="M161" s="8"/>
       <c r="N161" s="36"/>
       <c r="T161" s="37"/>
       <c r="U161" s="36"/>
@@ -10565,19 +10621,19 @@
       <c r="CE161" s="37"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="9"/>
-      <c r="B162" s="10"/>
-      <c r="C162" s="10"/>
+      <c r="A162" s="3"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
-      <c r="F162" s="14"/>
-      <c r="G162" s="14"/>
+      <c r="F162" s="12"/>
+      <c r="G162" s="12"/>
       <c r="H162" s="35"/>
       <c r="I162" s="11"/>
       <c r="J162" s="11"/>
       <c r="K162" s="1"/>
-      <c r="L162" s="5"/>
-      <c r="M162" s="3"/>
+      <c r="L162" s="10"/>
+      <c r="M162" s="8"/>
       <c r="N162" s="36"/>
       <c r="T162" s="37"/>
       <c r="U162" s="36"/>
@@ -10600,19 +10656,19 @@
       <c r="CE162" s="37"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="9"/>
-      <c r="B163" s="10"/>
-      <c r="C163" s="10"/>
+      <c r="A163" s="3"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
-      <c r="F163" s="14"/>
-      <c r="G163" s="14"/>
+      <c r="F163" s="12"/>
+      <c r="G163" s="12"/>
       <c r="H163" s="35"/>
       <c r="I163" s="11"/>
       <c r="J163" s="11"/>
       <c r="K163" s="1"/>
-      <c r="L163" s="5"/>
-      <c r="M163" s="3"/>
+      <c r="L163" s="10"/>
+      <c r="M163" s="8"/>
       <c r="N163" s="36"/>
       <c r="T163" s="37"/>
       <c r="U163" s="36"/>
@@ -10635,19 +10691,19 @@
       <c r="CE163" s="37"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="9"/>
-      <c r="B164" s="10"/>
-      <c r="C164" s="10"/>
+      <c r="A164" s="3"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
-      <c r="F164" s="14"/>
-      <c r="G164" s="14"/>
+      <c r="F164" s="12"/>
+      <c r="G164" s="12"/>
       <c r="H164" s="35"/>
       <c r="I164" s="11"/>
       <c r="J164" s="11"/>
       <c r="K164" s="1"/>
-      <c r="L164" s="5"/>
-      <c r="M164" s="3"/>
+      <c r="L164" s="10"/>
+      <c r="M164" s="8"/>
       <c r="N164" s="36"/>
       <c r="T164" s="37"/>
       <c r="U164" s="36"/>
@@ -10670,19 +10726,19 @@
       <c r="CE164" s="37"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="9"/>
-      <c r="B165" s="10"/>
-      <c r="C165" s="10"/>
+      <c r="A165" s="3"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
-      <c r="F165" s="14"/>
-      <c r="G165" s="14"/>
+      <c r="F165" s="12"/>
+      <c r="G165" s="12"/>
       <c r="H165" s="35"/>
       <c r="I165" s="11"/>
       <c r="J165" s="11"/>
       <c r="K165" s="1"/>
-      <c r="L165" s="5"/>
-      <c r="M165" s="3"/>
+      <c r="L165" s="10"/>
+      <c r="M165" s="8"/>
       <c r="N165" s="36"/>
       <c r="T165" s="37"/>
       <c r="U165" s="36"/>
@@ -10705,19 +10761,19 @@
       <c r="CE165" s="37"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="9"/>
-      <c r="B166" s="10"/>
-      <c r="C166" s="10"/>
+      <c r="A166" s="3"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
-      <c r="F166" s="14"/>
-      <c r="G166" s="14"/>
+      <c r="F166" s="12"/>
+      <c r="G166" s="12"/>
       <c r="H166" s="35"/>
       <c r="I166" s="11"/>
       <c r="J166" s="11"/>
       <c r="K166" s="1"/>
-      <c r="L166" s="5"/>
-      <c r="M166" s="3"/>
+      <c r="L166" s="10"/>
+      <c r="M166" s="8"/>
       <c r="N166" s="36"/>
       <c r="T166" s="37"/>
       <c r="U166" s="36"/>
@@ -10740,19 +10796,19 @@
       <c r="CE166" s="37"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="9"/>
-      <c r="B167" s="10"/>
-      <c r="C167" s="10"/>
+      <c r="A167" s="3"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
-      <c r="F167" s="14"/>
-      <c r="G167" s="14"/>
+      <c r="F167" s="12"/>
+      <c r="G167" s="12"/>
       <c r="H167" s="35"/>
       <c r="I167" s="11"/>
       <c r="J167" s="11"/>
       <c r="K167" s="1"/>
-      <c r="L167" s="5"/>
-      <c r="M167" s="3"/>
+      <c r="L167" s="10"/>
+      <c r="M167" s="8"/>
       <c r="N167" s="36"/>
       <c r="T167" s="37"/>
       <c r="U167" s="36"/>
@@ -10775,19 +10831,19 @@
       <c r="CE167" s="37"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="9"/>
-      <c r="B168" s="10"/>
-      <c r="C168" s="10"/>
+      <c r="A168" s="3"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
-      <c r="F168" s="14"/>
-      <c r="G168" s="14"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
       <c r="H168" s="35"/>
       <c r="I168" s="11"/>
       <c r="J168" s="11"/>
       <c r="K168" s="1"/>
-      <c r="L168" s="5"/>
-      <c r="M168" s="3"/>
+      <c r="L168" s="10"/>
+      <c r="M168" s="8"/>
       <c r="N168" s="36"/>
       <c r="T168" s="37"/>
       <c r="U168" s="36"/>
@@ -10810,19 +10866,19 @@
       <c r="CE168" s="37"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="9"/>
-      <c r="B169" s="10"/>
-      <c r="C169" s="10"/>
+      <c r="A169" s="3"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
-      <c r="F169" s="14"/>
-      <c r="G169" s="14"/>
+      <c r="F169" s="12"/>
+      <c r="G169" s="12"/>
       <c r="H169" s="35"/>
       <c r="I169" s="11"/>
       <c r="J169" s="11"/>
       <c r="K169" s="1"/>
-      <c r="L169" s="5"/>
-      <c r="M169" s="3"/>
+      <c r="L169" s="10"/>
+      <c r="M169" s="8"/>
       <c r="N169" s="36"/>
       <c r="T169" s="37"/>
       <c r="U169" s="36"/>
@@ -10845,19 +10901,19 @@
       <c r="CE169" s="37"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="9"/>
-      <c r="B170" s="10"/>
-      <c r="C170" s="10"/>
+      <c r="A170" s="3"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
-      <c r="F170" s="14"/>
-      <c r="G170" s="14"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="12"/>
       <c r="H170" s="35"/>
       <c r="I170" s="11"/>
       <c r="J170" s="11"/>
       <c r="K170" s="1"/>
-      <c r="L170" s="5"/>
-      <c r="M170" s="3"/>
+      <c r="L170" s="10"/>
+      <c r="M170" s="8"/>
       <c r="N170" s="36"/>
       <c r="T170" s="37"/>
       <c r="U170" s="36"/>
@@ -10880,19 +10936,19 @@
       <c r="CE170" s="37"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="9"/>
-      <c r="B171" s="10"/>
-      <c r="C171" s="10"/>
+      <c r="A171" s="3"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
-      <c r="F171" s="14"/>
-      <c r="G171" s="14"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="12"/>
       <c r="H171" s="35"/>
       <c r="I171" s="11"/>
       <c r="J171" s="11"/>
       <c r="K171" s="1"/>
-      <c r="L171" s="5"/>
-      <c r="M171" s="3"/>
+      <c r="L171" s="10"/>
+      <c r="M171" s="8"/>
       <c r="N171" s="36"/>
       <c r="T171" s="37"/>
       <c r="U171" s="36"/>
@@ -10915,19 +10971,19 @@
       <c r="CE171" s="37"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="9"/>
-      <c r="B172" s="10"/>
-      <c r="C172" s="10"/>
+      <c r="A172" s="3"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
-      <c r="F172" s="14"/>
-      <c r="G172" s="14"/>
+      <c r="F172" s="12"/>
+      <c r="G172" s="12"/>
       <c r="H172" s="35"/>
       <c r="I172" s="11"/>
       <c r="J172" s="11"/>
       <c r="K172" s="1"/>
-      <c r="L172" s="5"/>
-      <c r="M172" s="3"/>
+      <c r="L172" s="10"/>
+      <c r="M172" s="8"/>
       <c r="N172" s="36"/>
       <c r="T172" s="37"/>
       <c r="U172" s="36"/>
@@ -10950,19 +11006,19 @@
       <c r="CE172" s="37"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="9"/>
-      <c r="B173" s="10"/>
-      <c r="C173" s="10"/>
+      <c r="A173" s="3"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
-      <c r="F173" s="14"/>
-      <c r="G173" s="14"/>
+      <c r="F173" s="12"/>
+      <c r="G173" s="12"/>
       <c r="H173" s="35"/>
       <c r="I173" s="11"/>
       <c r="J173" s="11"/>
       <c r="K173" s="1"/>
-      <c r="L173" s="5"/>
-      <c r="M173" s="3"/>
+      <c r="L173" s="10"/>
+      <c r="M173" s="8"/>
       <c r="N173" s="36"/>
       <c r="T173" s="37"/>
       <c r="U173" s="36"/>
@@ -10985,19 +11041,19 @@
       <c r="CE173" s="37"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="9"/>
-      <c r="B174" s="10"/>
-      <c r="C174" s="10"/>
+      <c r="A174" s="3"/>
+      <c r="B174" s="5"/>
+      <c r="C174" s="5"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
-      <c r="F174" s="14"/>
-      <c r="G174" s="14"/>
+      <c r="F174" s="12"/>
+      <c r="G174" s="12"/>
       <c r="H174" s="35"/>
       <c r="I174" s="11"/>
       <c r="J174" s="11"/>
       <c r="K174" s="1"/>
-      <c r="L174" s="5"/>
-      <c r="M174" s="3"/>
+      <c r="L174" s="10"/>
+      <c r="M174" s="8"/>
       <c r="N174" s="36"/>
       <c r="T174" s="37"/>
       <c r="U174" s="36"/>
@@ -11020,19 +11076,19 @@
       <c r="CE174" s="37"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="9"/>
-      <c r="B175" s="10"/>
-      <c r="C175" s="10"/>
+      <c r="A175" s="3"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
-      <c r="F175" s="14"/>
-      <c r="G175" s="14"/>
+      <c r="F175" s="12"/>
+      <c r="G175" s="12"/>
       <c r="H175" s="35"/>
       <c r="I175" s="11"/>
       <c r="J175" s="11"/>
       <c r="K175" s="1"/>
-      <c r="L175" s="5"/>
-      <c r="M175" s="3"/>
+      <c r="L175" s="10"/>
+      <c r="M175" s="8"/>
       <c r="N175" s="36"/>
       <c r="T175" s="37"/>
       <c r="U175" s="36"/>
@@ -11055,19 +11111,19 @@
       <c r="CE175" s="37"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="9"/>
-      <c r="B176" s="10"/>
-      <c r="C176" s="10"/>
+      <c r="A176" s="3"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="5"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
-      <c r="F176" s="14"/>
-      <c r="G176" s="14"/>
+      <c r="F176" s="12"/>
+      <c r="G176" s="12"/>
       <c r="H176" s="35"/>
       <c r="I176" s="11"/>
       <c r="J176" s="11"/>
       <c r="K176" s="1"/>
-      <c r="L176" s="5"/>
-      <c r="M176" s="3"/>
+      <c r="L176" s="10"/>
+      <c r="M176" s="8"/>
       <c r="N176" s="36"/>
       <c r="T176" s="37"/>
       <c r="U176" s="36"/>
@@ -11090,19 +11146,19 @@
       <c r="CE176" s="37"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="9"/>
-      <c r="B177" s="10"/>
-      <c r="C177" s="10"/>
+      <c r="A177" s="3"/>
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
-      <c r="F177" s="14"/>
-      <c r="G177" s="14"/>
+      <c r="F177" s="12"/>
+      <c r="G177" s="12"/>
       <c r="H177" s="35"/>
       <c r="I177" s="11"/>
       <c r="J177" s="11"/>
       <c r="K177" s="1"/>
-      <c r="L177" s="5"/>
-      <c r="M177" s="3"/>
+      <c r="L177" s="10"/>
+      <c r="M177" s="8"/>
       <c r="N177" s="36"/>
       <c r="T177" s="37"/>
       <c r="U177" s="36"/>
@@ -11125,19 +11181,19 @@
       <c r="CE177" s="37"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="9"/>
-      <c r="B178" s="10"/>
-      <c r="C178" s="10"/>
+      <c r="A178" s="3"/>
+      <c r="B178" s="5"/>
+      <c r="C178" s="5"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
-      <c r="F178" s="14"/>
-      <c r="G178" s="14"/>
+      <c r="F178" s="12"/>
+      <c r="G178" s="12"/>
       <c r="H178" s="35"/>
       <c r="I178" s="11"/>
       <c r="J178" s="11"/>
       <c r="K178" s="1"/>
-      <c r="L178" s="5"/>
-      <c r="M178" s="3"/>
+      <c r="L178" s="10"/>
+      <c r="M178" s="8"/>
       <c r="N178" s="36"/>
       <c r="T178" s="37"/>
       <c r="U178" s="36"/>
@@ -11160,19 +11216,19 @@
       <c r="CE178" s="37"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="9"/>
-      <c r="B179" s="10"/>
-      <c r="C179" s="10"/>
+      <c r="A179" s="3"/>
+      <c r="B179" s="5"/>
+      <c r="C179" s="5"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
-      <c r="F179" s="14"/>
-      <c r="G179" s="14"/>
+      <c r="F179" s="12"/>
+      <c r="G179" s="12"/>
       <c r="H179" s="35"/>
       <c r="I179" s="11"/>
       <c r="J179" s="11"/>
       <c r="K179" s="1"/>
-      <c r="L179" s="5"/>
-      <c r="M179" s="3"/>
+      <c r="L179" s="10"/>
+      <c r="M179" s="8"/>
       <c r="N179" s="36"/>
       <c r="T179" s="37"/>
       <c r="U179" s="36"/>
@@ -11195,19 +11251,19 @@
       <c r="CE179" s="37"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="9"/>
-      <c r="B180" s="10"/>
-      <c r="C180" s="10"/>
+      <c r="A180" s="3"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="5"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
-      <c r="F180" s="14"/>
-      <c r="G180" s="14"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="12"/>
       <c r="H180" s="35"/>
       <c r="I180" s="11"/>
       <c r="J180" s="11"/>
       <c r="K180" s="1"/>
-      <c r="L180" s="5"/>
-      <c r="M180" s="3"/>
+      <c r="L180" s="10"/>
+      <c r="M180" s="8"/>
       <c r="N180" s="36"/>
       <c r="T180" s="37"/>
       <c r="U180" s="36"/>
@@ -11230,19 +11286,19 @@
       <c r="CE180" s="37"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="9"/>
-      <c r="B181" s="10"/>
-      <c r="C181" s="10"/>
+      <c r="A181" s="3"/>
+      <c r="B181" s="5"/>
+      <c r="C181" s="5"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
-      <c r="F181" s="14"/>
-      <c r="G181" s="14"/>
+      <c r="F181" s="12"/>
+      <c r="G181" s="12"/>
       <c r="H181" s="35"/>
       <c r="I181" s="11"/>
       <c r="J181" s="11"/>
       <c r="K181" s="1"/>
-      <c r="L181" s="5"/>
-      <c r="M181" s="3"/>
+      <c r="L181" s="10"/>
+      <c r="M181" s="8"/>
       <c r="N181" s="36"/>
       <c r="T181" s="37"/>
       <c r="U181" s="36"/>
@@ -11265,19 +11321,19 @@
       <c r="CE181" s="37"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="9"/>
-      <c r="B182" s="10"/>
-      <c r="C182" s="10"/>
+      <c r="A182" s="3"/>
+      <c r="B182" s="5"/>
+      <c r="C182" s="5"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
-      <c r="F182" s="14"/>
-      <c r="G182" s="14"/>
+      <c r="F182" s="12"/>
+      <c r="G182" s="12"/>
       <c r="H182" s="35"/>
       <c r="I182" s="11"/>
       <c r="J182" s="11"/>
       <c r="K182" s="1"/>
-      <c r="L182" s="5"/>
-      <c r="M182" s="3"/>
+      <c r="L182" s="10"/>
+      <c r="M182" s="8"/>
       <c r="N182" s="36"/>
       <c r="T182" s="37"/>
       <c r="U182" s="36"/>
@@ -11300,19 +11356,19 @@
       <c r="CE182" s="37"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="9"/>
-      <c r="B183" s="10"/>
-      <c r="C183" s="10"/>
+      <c r="A183" s="3"/>
+      <c r="B183" s="5"/>
+      <c r="C183" s="5"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
-      <c r="F183" s="14"/>
-      <c r="G183" s="14"/>
+      <c r="F183" s="12"/>
+      <c r="G183" s="12"/>
       <c r="H183" s="35"/>
       <c r="I183" s="11"/>
       <c r="J183" s="11"/>
       <c r="K183" s="1"/>
-      <c r="L183" s="5"/>
-      <c r="M183" s="3"/>
+      <c r="L183" s="10"/>
+      <c r="M183" s="8"/>
       <c r="N183" s="36"/>
       <c r="T183" s="37"/>
       <c r="U183" s="36"/>
@@ -11335,19 +11391,19 @@
       <c r="CE183" s="37"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="9"/>
-      <c r="B184" s="10"/>
-      <c r="C184" s="10"/>
+      <c r="A184" s="3"/>
+      <c r="B184" s="5"/>
+      <c r="C184" s="5"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
-      <c r="F184" s="14"/>
-      <c r="G184" s="14"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="12"/>
       <c r="H184" s="35"/>
       <c r="I184" s="11"/>
       <c r="J184" s="11"/>
       <c r="K184" s="1"/>
-      <c r="L184" s="5"/>
-      <c r="M184" s="3"/>
+      <c r="L184" s="10"/>
+      <c r="M184" s="8"/>
       <c r="N184" s="36"/>
       <c r="T184" s="37"/>
       <c r="U184" s="36"/>
@@ -11370,19 +11426,19 @@
       <c r="CE184" s="37"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="9"/>
-      <c r="B185" s="10"/>
-      <c r="C185" s="10"/>
+      <c r="A185" s="3"/>
+      <c r="B185" s="5"/>
+      <c r="C185" s="5"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
-      <c r="F185" s="14"/>
-      <c r="G185" s="14"/>
+      <c r="F185" s="12"/>
+      <c r="G185" s="12"/>
       <c r="H185" s="35"/>
       <c r="I185" s="11"/>
       <c r="J185" s="11"/>
       <c r="K185" s="1"/>
-      <c r="L185" s="5"/>
-      <c r="M185" s="3"/>
+      <c r="L185" s="10"/>
+      <c r="M185" s="8"/>
       <c r="N185" s="36"/>
       <c r="T185" s="37"/>
       <c r="U185" s="36"/>
@@ -11405,19 +11461,19 @@
       <c r="CE185" s="37"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="9"/>
-      <c r="B186" s="10"/>
-      <c r="C186" s="10"/>
+      <c r="A186" s="3"/>
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
-      <c r="F186" s="14"/>
-      <c r="G186" s="14"/>
+      <c r="F186" s="12"/>
+      <c r="G186" s="12"/>
       <c r="H186" s="35"/>
       <c r="I186" s="11"/>
       <c r="J186" s="11"/>
       <c r="K186" s="1"/>
-      <c r="L186" s="5"/>
-      <c r="M186" s="3"/>
+      <c r="L186" s="10"/>
+      <c r="M186" s="8"/>
       <c r="N186" s="36"/>
       <c r="T186" s="37"/>
       <c r="U186" s="36"/>
@@ -11440,19 +11496,19 @@
       <c r="CE186" s="37"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="9"/>
-      <c r="B187" s="10"/>
-      <c r="C187" s="10"/>
+      <c r="A187" s="3"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="5"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
-      <c r="F187" s="14"/>
-      <c r="G187" s="14"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="12"/>
       <c r="H187" s="35"/>
       <c r="I187" s="11"/>
       <c r="J187" s="11"/>
       <c r="K187" s="1"/>
-      <c r="L187" s="5"/>
-      <c r="M187" s="3"/>
+      <c r="L187" s="10"/>
+      <c r="M187" s="8"/>
       <c r="N187" s="36"/>
       <c r="T187" s="37"/>
       <c r="U187" s="36"/>
@@ -11475,19 +11531,19 @@
       <c r="CE187" s="37"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="9"/>
-      <c r="B188" s="10"/>
-      <c r="C188" s="10"/>
+      <c r="A188" s="3"/>
+      <c r="B188" s="5"/>
+      <c r="C188" s="5"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
-      <c r="F188" s="14"/>
-      <c r="G188" s="14"/>
+      <c r="F188" s="12"/>
+      <c r="G188" s="12"/>
       <c r="H188" s="35"/>
       <c r="I188" s="11"/>
       <c r="J188" s="11"/>
       <c r="K188" s="1"/>
-      <c r="L188" s="5"/>
-      <c r="M188" s="3"/>
+      <c r="L188" s="10"/>
+      <c r="M188" s="8"/>
       <c r="N188" s="36"/>
       <c r="T188" s="37"/>
       <c r="U188" s="36"/>
@@ -11510,19 +11566,19 @@
       <c r="CE188" s="37"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="9"/>
-      <c r="B189" s="10"/>
-      <c r="C189" s="10"/>
+      <c r="A189" s="3"/>
+      <c r="B189" s="5"/>
+      <c r="C189" s="5"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
-      <c r="F189" s="14"/>
-      <c r="G189" s="14"/>
+      <c r="F189" s="12"/>
+      <c r="G189" s="12"/>
       <c r="H189" s="35"/>
       <c r="I189" s="11"/>
       <c r="J189" s="11"/>
       <c r="K189" s="1"/>
-      <c r="L189" s="5"/>
-      <c r="M189" s="3"/>
+      <c r="L189" s="10"/>
+      <c r="M189" s="8"/>
       <c r="N189" s="36"/>
       <c r="T189" s="37"/>
       <c r="U189" s="36"/>
@@ -11545,19 +11601,19 @@
       <c r="CE189" s="37"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="9"/>
-      <c r="B190" s="10"/>
-      <c r="C190" s="10"/>
+      <c r="A190" s="3"/>
+      <c r="B190" s="5"/>
+      <c r="C190" s="5"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
-      <c r="F190" s="14"/>
-      <c r="G190" s="14"/>
+      <c r="F190" s="12"/>
+      <c r="G190" s="12"/>
       <c r="H190" s="35"/>
       <c r="I190" s="11"/>
       <c r="J190" s="11"/>
       <c r="K190" s="1"/>
-      <c r="L190" s="5"/>
-      <c r="M190" s="3"/>
+      <c r="L190" s="10"/>
+      <c r="M190" s="8"/>
       <c r="N190" s="36"/>
       <c r="T190" s="37"/>
       <c r="U190" s="36"/>
@@ -11580,19 +11636,19 @@
       <c r="CE190" s="37"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="9"/>
-      <c r="B191" s="10"/>
-      <c r="C191" s="10"/>
+      <c r="A191" s="3"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="5"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
-      <c r="F191" s="14"/>
-      <c r="G191" s="14"/>
+      <c r="F191" s="12"/>
+      <c r="G191" s="12"/>
       <c r="H191" s="35"/>
       <c r="I191" s="11"/>
       <c r="J191" s="11"/>
       <c r="K191" s="1"/>
-      <c r="L191" s="5"/>
-      <c r="M191" s="3"/>
+      <c r="L191" s="10"/>
+      <c r="M191" s="8"/>
       <c r="N191" s="36"/>
       <c r="T191" s="37"/>
       <c r="U191" s="36"/>
@@ -11615,19 +11671,19 @@
       <c r="CE191" s="37"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="9"/>
-      <c r="B192" s="10"/>
-      <c r="C192" s="10"/>
+      <c r="A192" s="3"/>
+      <c r="B192" s="5"/>
+      <c r="C192" s="5"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
-      <c r="F192" s="14"/>
-      <c r="G192" s="14"/>
+      <c r="F192" s="12"/>
+      <c r="G192" s="12"/>
       <c r="H192" s="35"/>
       <c r="I192" s="11"/>
       <c r="J192" s="11"/>
       <c r="K192" s="1"/>
-      <c r="L192" s="5"/>
-      <c r="M192" s="3"/>
+      <c r="L192" s="10"/>
+      <c r="M192" s="8"/>
       <c r="N192" s="36"/>
       <c r="T192" s="37"/>
       <c r="U192" s="36"/>
@@ -11650,19 +11706,19 @@
       <c r="CE192" s="37"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="9"/>
-      <c r="B193" s="10"/>
-      <c r="C193" s="10"/>
+      <c r="A193" s="3"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="5"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
-      <c r="F193" s="14"/>
-      <c r="G193" s="14"/>
+      <c r="F193" s="12"/>
+      <c r="G193" s="12"/>
       <c r="H193" s="35"/>
       <c r="I193" s="11"/>
       <c r="J193" s="11"/>
       <c r="K193" s="1"/>
-      <c r="L193" s="5"/>
-      <c r="M193" s="3"/>
+      <c r="L193" s="10"/>
+      <c r="M193" s="8"/>
       <c r="N193" s="36"/>
       <c r="T193" s="37"/>
       <c r="U193" s="36"/>
@@ -11685,19 +11741,19 @@
       <c r="CE193" s="37"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="9"/>
-      <c r="B194" s="10"/>
-      <c r="C194" s="10"/>
+      <c r="A194" s="3"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="5"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
-      <c r="F194" s="14"/>
-      <c r="G194" s="14"/>
+      <c r="F194" s="12"/>
+      <c r="G194" s="12"/>
       <c r="H194" s="35"/>
       <c r="I194" s="11"/>
       <c r="J194" s="11"/>
       <c r="K194" s="1"/>
-      <c r="L194" s="5"/>
-      <c r="M194" s="3"/>
+      <c r="L194" s="10"/>
+      <c r="M194" s="8"/>
       <c r="N194" s="36"/>
       <c r="T194" s="37"/>
       <c r="U194" s="36"/>
@@ -11720,19 +11776,19 @@
       <c r="CE194" s="37"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="9"/>
-      <c r="B195" s="10"/>
-      <c r="C195" s="10"/>
+      <c r="A195" s="3"/>
+      <c r="B195" s="5"/>
+      <c r="C195" s="5"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
-      <c r="F195" s="14"/>
-      <c r="G195" s="14"/>
+      <c r="F195" s="12"/>
+      <c r="G195" s="12"/>
       <c r="H195" s="35"/>
       <c r="I195" s="11"/>
       <c r="J195" s="11"/>
       <c r="K195" s="1"/>
-      <c r="L195" s="5"/>
-      <c r="M195" s="3"/>
+      <c r="L195" s="10"/>
+      <c r="M195" s="8"/>
       <c r="N195" s="36"/>
       <c r="T195" s="37"/>
       <c r="U195" s="36"/>
@@ -11755,19 +11811,19 @@
       <c r="CE195" s="37"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="9"/>
-      <c r="B196" s="10"/>
-      <c r="C196" s="10"/>
+      <c r="A196" s="3"/>
+      <c r="B196" s="5"/>
+      <c r="C196" s="5"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
-      <c r="F196" s="14"/>
-      <c r="G196" s="14"/>
+      <c r="F196" s="12"/>
+      <c r="G196" s="12"/>
       <c r="H196" s="35"/>
       <c r="I196" s="11"/>
       <c r="J196" s="11"/>
       <c r="K196" s="1"/>
-      <c r="L196" s="5"/>
-      <c r="M196" s="3"/>
+      <c r="L196" s="10"/>
+      <c r="M196" s="8"/>
       <c r="N196" s="36"/>
       <c r="T196" s="37"/>
       <c r="U196" s="36"/>
@@ -11790,19 +11846,19 @@
       <c r="CE196" s="37"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="9"/>
-      <c r="B197" s="10"/>
-      <c r="C197" s="10"/>
+      <c r="A197" s="3"/>
+      <c r="B197" s="5"/>
+      <c r="C197" s="5"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
-      <c r="F197" s="14"/>
-      <c r="G197" s="14"/>
+      <c r="F197" s="12"/>
+      <c r="G197" s="12"/>
       <c r="H197" s="35"/>
       <c r="I197" s="11"/>
       <c r="J197" s="11"/>
       <c r="K197" s="1"/>
-      <c r="L197" s="5"/>
-      <c r="M197" s="3"/>
+      <c r="L197" s="10"/>
+      <c r="M197" s="8"/>
       <c r="N197" s="36"/>
       <c r="T197" s="37"/>
       <c r="U197" s="36"/>
@@ -11825,19 +11881,19 @@
       <c r="CE197" s="37"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="9"/>
-      <c r="B198" s="10"/>
-      <c r="C198" s="10"/>
+      <c r="A198" s="3"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="5"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
-      <c r="F198" s="14"/>
-      <c r="G198" s="14"/>
+      <c r="F198" s="12"/>
+      <c r="G198" s="12"/>
       <c r="H198" s="35"/>
       <c r="I198" s="11"/>
       <c r="J198" s="11"/>
       <c r="K198" s="1"/>
-      <c r="L198" s="5"/>
-      <c r="M198" s="3"/>
+      <c r="L198" s="10"/>
+      <c r="M198" s="8"/>
       <c r="N198" s="36"/>
       <c r="T198" s="37"/>
       <c r="U198" s="36"/>
@@ -11860,19 +11916,19 @@
       <c r="CE198" s="37"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="9"/>
-      <c r="B199" s="10"/>
-      <c r="C199" s="10"/>
+      <c r="A199" s="3"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="5"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
-      <c r="F199" s="14"/>
-      <c r="G199" s="14"/>
+      <c r="F199" s="12"/>
+      <c r="G199" s="12"/>
       <c r="H199" s="35"/>
       <c r="I199" s="11"/>
       <c r="J199" s="11"/>
       <c r="K199" s="1"/>
-      <c r="L199" s="5"/>
-      <c r="M199" s="3"/>
+      <c r="L199" s="10"/>
+      <c r="M199" s="8"/>
       <c r="N199" s="36"/>
       <c r="T199" s="37"/>
       <c r="U199" s="36"/>
@@ -11895,19 +11951,19 @@
       <c r="CE199" s="37"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="9"/>
-      <c r="B200" s="10"/>
-      <c r="C200" s="10"/>
+      <c r="A200" s="3"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="5"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
-      <c r="F200" s="14"/>
-      <c r="G200" s="14"/>
+      <c r="F200" s="12"/>
+      <c r="G200" s="12"/>
       <c r="H200" s="35"/>
       <c r="I200" s="11"/>
       <c r="J200" s="11"/>
       <c r="K200" s="1"/>
-      <c r="L200" s="5"/>
-      <c r="M200" s="3"/>
+      <c r="L200" s="10"/>
+      <c r="M200" s="8"/>
       <c r="N200" s="36"/>
       <c r="T200" s="37"/>
       <c r="U200" s="36"/>
@@ -11930,19 +11986,19 @@
       <c r="CE200" s="37"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="9"/>
-      <c r="B201" s="10"/>
-      <c r="C201" s="10"/>
+      <c r="A201" s="3"/>
+      <c r="B201" s="5"/>
+      <c r="C201" s="5"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
-      <c r="F201" s="14"/>
-      <c r="G201" s="14"/>
+      <c r="F201" s="12"/>
+      <c r="G201" s="12"/>
       <c r="H201" s="35"/>
       <c r="I201" s="11"/>
       <c r="J201" s="11"/>
       <c r="K201" s="1"/>
-      <c r="L201" s="5"/>
-      <c r="M201" s="3"/>
+      <c r="L201" s="10"/>
+      <c r="M201" s="8"/>
       <c r="N201" s="36"/>
       <c r="T201" s="37"/>
       <c r="U201" s="36"/>
@@ -11965,19 +12021,19 @@
       <c r="CE201" s="37"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="9"/>
-      <c r="B202" s="10"/>
-      <c r="C202" s="10"/>
+      <c r="A202" s="3"/>
+      <c r="B202" s="5"/>
+      <c r="C202" s="5"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
-      <c r="F202" s="14"/>
-      <c r="G202" s="14"/>
+      <c r="F202" s="12"/>
+      <c r="G202" s="12"/>
       <c r="H202" s="35"/>
       <c r="I202" s="11"/>
       <c r="J202" s="11"/>
       <c r="K202" s="1"/>
-      <c r="L202" s="5"/>
-      <c r="M202" s="3"/>
+      <c r="L202" s="10"/>
+      <c r="M202" s="8"/>
       <c r="N202" s="36"/>
       <c r="T202" s="37"/>
       <c r="U202" s="36"/>
@@ -12000,19 +12056,19 @@
       <c r="CE202" s="37"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="9"/>
-      <c r="B203" s="10"/>
-      <c r="C203" s="10"/>
+      <c r="A203" s="3"/>
+      <c r="B203" s="5"/>
+      <c r="C203" s="5"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
-      <c r="F203" s="14"/>
-      <c r="G203" s="14"/>
+      <c r="F203" s="12"/>
+      <c r="G203" s="12"/>
       <c r="H203" s="35"/>
       <c r="I203" s="11"/>
       <c r="J203" s="11"/>
       <c r="K203" s="1"/>
-      <c r="L203" s="5"/>
-      <c r="M203" s="3"/>
+      <c r="L203" s="10"/>
+      <c r="M203" s="8"/>
       <c r="N203" s="36"/>
       <c r="T203" s="37"/>
       <c r="U203" s="36"/>
@@ -12035,19 +12091,19 @@
       <c r="CE203" s="37"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="9"/>
-      <c r="B204" s="10"/>
-      <c r="C204" s="10"/>
+      <c r="A204" s="3"/>
+      <c r="B204" s="5"/>
+      <c r="C204" s="5"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
-      <c r="F204" s="14"/>
-      <c r="G204" s="14"/>
+      <c r="F204" s="12"/>
+      <c r="G204" s="12"/>
       <c r="H204" s="35"/>
       <c r="I204" s="11"/>
       <c r="J204" s="11"/>
       <c r="K204" s="1"/>
-      <c r="L204" s="5"/>
-      <c r="M204" s="3"/>
+      <c r="L204" s="10"/>
+      <c r="M204" s="8"/>
       <c r="N204" s="36"/>
       <c r="T204" s="37"/>
       <c r="U204" s="36"/>
@@ -12070,19 +12126,19 @@
       <c r="CE204" s="37"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="9"/>
-      <c r="B205" s="10"/>
-      <c r="C205" s="10"/>
+      <c r="A205" s="3"/>
+      <c r="B205" s="5"/>
+      <c r="C205" s="5"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
-      <c r="F205" s="14"/>
-      <c r="G205" s="14"/>
+      <c r="F205" s="12"/>
+      <c r="G205" s="12"/>
       <c r="H205" s="35"/>
       <c r="I205" s="11"/>
       <c r="J205" s="11"/>
       <c r="K205" s="1"/>
-      <c r="L205" s="5"/>
-      <c r="M205" s="3"/>
+      <c r="L205" s="10"/>
+      <c r="M205" s="8"/>
       <c r="N205" s="36"/>
       <c r="T205" s="37"/>
       <c r="U205" s="36"/>
@@ -12105,19 +12161,19 @@
       <c r="CE205" s="37"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="9"/>
-      <c r="B206" s="10"/>
-      <c r="C206" s="10"/>
+      <c r="A206" s="3"/>
+      <c r="B206" s="5"/>
+      <c r="C206" s="5"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
-      <c r="F206" s="14"/>
-      <c r="G206" s="14"/>
+      <c r="F206" s="12"/>
+      <c r="G206" s="12"/>
       <c r="H206" s="35"/>
       <c r="I206" s="11"/>
       <c r="J206" s="11"/>
       <c r="K206" s="1"/>
-      <c r="L206" s="5"/>
-      <c r="M206" s="3"/>
+      <c r="L206" s="10"/>
+      <c r="M206" s="8"/>
       <c r="N206" s="36"/>
       <c r="T206" s="37"/>
       <c r="U206" s="36"/>
@@ -12140,19 +12196,19 @@
       <c r="CE206" s="37"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="9"/>
-      <c r="B207" s="10"/>
-      <c r="C207" s="10"/>
+      <c r="A207" s="3"/>
+      <c r="B207" s="5"/>
+      <c r="C207" s="5"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
-      <c r="F207" s="14"/>
-      <c r="G207" s="14"/>
+      <c r="F207" s="12"/>
+      <c r="G207" s="12"/>
       <c r="H207" s="35"/>
       <c r="I207" s="11"/>
       <c r="J207" s="11"/>
       <c r="K207" s="1"/>
-      <c r="L207" s="5"/>
-      <c r="M207" s="3"/>
+      <c r="L207" s="10"/>
+      <c r="M207" s="8"/>
       <c r="N207" s="36"/>
       <c r="T207" s="37"/>
       <c r="U207" s="36"/>
@@ -12175,19 +12231,19 @@
       <c r="CE207" s="37"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="9"/>
-      <c r="B208" s="10"/>
-      <c r="C208" s="10"/>
+      <c r="A208" s="3"/>
+      <c r="B208" s="5"/>
+      <c r="C208" s="5"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
-      <c r="F208" s="14"/>
-      <c r="G208" s="14"/>
+      <c r="F208" s="12"/>
+      <c r="G208" s="12"/>
       <c r="H208" s="35"/>
       <c r="I208" s="11"/>
       <c r="J208" s="11"/>
       <c r="K208" s="1"/>
-      <c r="L208" s="5"/>
-      <c r="M208" s="3"/>
+      <c r="L208" s="10"/>
+      <c r="M208" s="8"/>
       <c r="N208" s="36"/>
       <c r="T208" s="37"/>
       <c r="U208" s="36"/>
@@ -12210,19 +12266,19 @@
       <c r="CE208" s="37"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="9"/>
-      <c r="B209" s="10"/>
-      <c r="C209" s="10"/>
+      <c r="A209" s="3"/>
+      <c r="B209" s="5"/>
+      <c r="C209" s="5"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
-      <c r="F209" s="14"/>
-      <c r="G209" s="14"/>
+      <c r="F209" s="12"/>
+      <c r="G209" s="12"/>
       <c r="H209" s="35"/>
       <c r="I209" s="11"/>
       <c r="J209" s="11"/>
       <c r="K209" s="1"/>
-      <c r="L209" s="5"/>
-      <c r="M209" s="3"/>
+      <c r="L209" s="10"/>
+      <c r="M209" s="8"/>
       <c r="N209" s="36"/>
       <c r="T209" s="37"/>
       <c r="U209" s="36"/>
@@ -12245,19 +12301,19 @@
       <c r="CE209" s="37"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="9"/>
-      <c r="B210" s="10"/>
-      <c r="C210" s="10"/>
+      <c r="A210" s="3"/>
+      <c r="B210" s="5"/>
+      <c r="C210" s="5"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
-      <c r="F210" s="14"/>
-      <c r="G210" s="14"/>
+      <c r="F210" s="12"/>
+      <c r="G210" s="12"/>
       <c r="H210" s="35"/>
       <c r="I210" s="11"/>
       <c r="J210" s="11"/>
       <c r="K210" s="1"/>
-      <c r="L210" s="5"/>
-      <c r="M210" s="3"/>
+      <c r="L210" s="10"/>
+      <c r="M210" s="8"/>
       <c r="N210" s="36"/>
       <c r="T210" s="37"/>
       <c r="U210" s="36"/>
@@ -12280,19 +12336,19 @@
       <c r="CE210" s="37"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="9"/>
-      <c r="B211" s="10"/>
-      <c r="C211" s="10"/>
+      <c r="A211" s="3"/>
+      <c r="B211" s="5"/>
+      <c r="C211" s="5"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
-      <c r="F211" s="14"/>
-      <c r="G211" s="14"/>
+      <c r="F211" s="12"/>
+      <c r="G211" s="12"/>
       <c r="H211" s="35"/>
       <c r="I211" s="11"/>
       <c r="J211" s="11"/>
       <c r="K211" s="1"/>
-      <c r="L211" s="5"/>
-      <c r="M211" s="3"/>
+      <c r="L211" s="10"/>
+      <c r="M211" s="8"/>
       <c r="N211" s="36"/>
       <c r="T211" s="37"/>
       <c r="U211" s="36"/>
@@ -12315,19 +12371,19 @@
       <c r="CE211" s="37"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="9"/>
-      <c r="B212" s="10"/>
-      <c r="C212" s="10"/>
+      <c r="A212" s="3"/>
+      <c r="B212" s="5"/>
+      <c r="C212" s="5"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
-      <c r="F212" s="14"/>
-      <c r="G212" s="14"/>
+      <c r="F212" s="12"/>
+      <c r="G212" s="12"/>
       <c r="H212" s="35"/>
       <c r="I212" s="11"/>
       <c r="J212" s="11"/>
       <c r="K212" s="1"/>
-      <c r="L212" s="5"/>
-      <c r="M212" s="3"/>
+      <c r="L212" s="10"/>
+      <c r="M212" s="8"/>
       <c r="N212" s="36"/>
       <c r="T212" s="37"/>
       <c r="U212" s="36"/>
@@ -12350,19 +12406,19 @@
       <c r="CE212" s="37"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="9"/>
-      <c r="B213" s="10"/>
-      <c r="C213" s="10"/>
+      <c r="A213" s="3"/>
+      <c r="B213" s="5"/>
+      <c r="C213" s="5"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
-      <c r="F213" s="14"/>
-      <c r="G213" s="14"/>
+      <c r="F213" s="12"/>
+      <c r="G213" s="12"/>
       <c r="H213" s="35"/>
       <c r="I213" s="11"/>
       <c r="J213" s="11"/>
       <c r="K213" s="1"/>
-      <c r="L213" s="5"/>
-      <c r="M213" s="3"/>
+      <c r="L213" s="10"/>
+      <c r="M213" s="8"/>
       <c r="N213" s="36"/>
       <c r="T213" s="37"/>
       <c r="U213" s="36"/>
@@ -12385,19 +12441,19 @@
       <c r="CE213" s="37"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="9"/>
-      <c r="B214" s="10"/>
-      <c r="C214" s="10"/>
+      <c r="A214" s="3"/>
+      <c r="B214" s="5"/>
+      <c r="C214" s="5"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
-      <c r="F214" s="14"/>
-      <c r="G214" s="14"/>
+      <c r="F214" s="12"/>
+      <c r="G214" s="12"/>
       <c r="H214" s="35"/>
       <c r="I214" s="11"/>
       <c r="J214" s="11"/>
       <c r="K214" s="1"/>
-      <c r="L214" s="5"/>
-      <c r="M214" s="3"/>
+      <c r="L214" s="10"/>
+      <c r="M214" s="8"/>
       <c r="N214" s="36"/>
       <c r="T214" s="37"/>
       <c r="U214" s="36"/>
@@ -12420,19 +12476,19 @@
       <c r="CE214" s="37"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="9"/>
-      <c r="B215" s="10"/>
-      <c r="C215" s="10"/>
+      <c r="A215" s="3"/>
+      <c r="B215" s="5"/>
+      <c r="C215" s="5"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
-      <c r="F215" s="14"/>
-      <c r="G215" s="14"/>
+      <c r="F215" s="12"/>
+      <c r="G215" s="12"/>
       <c r="H215" s="35"/>
       <c r="I215" s="11"/>
       <c r="J215" s="11"/>
       <c r="K215" s="1"/>
-      <c r="L215" s="5"/>
-      <c r="M215" s="3"/>
+      <c r="L215" s="10"/>
+      <c r="M215" s="8"/>
       <c r="N215" s="36"/>
       <c r="T215" s="37"/>
       <c r="U215" s="36"/>
@@ -12455,19 +12511,19 @@
       <c r="CE215" s="37"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="9"/>
-      <c r="B216" s="10"/>
-      <c r="C216" s="10"/>
+      <c r="A216" s="3"/>
+      <c r="B216" s="5"/>
+      <c r="C216" s="5"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
-      <c r="F216" s="14"/>
-      <c r="G216" s="14"/>
+      <c r="F216" s="12"/>
+      <c r="G216" s="12"/>
       <c r="H216" s="35"/>
       <c r="I216" s="11"/>
       <c r="J216" s="11"/>
       <c r="K216" s="1"/>
-      <c r="L216" s="5"/>
-      <c r="M216" s="3"/>
+      <c r="L216" s="10"/>
+      <c r="M216" s="8"/>
       <c r="N216" s="36"/>
       <c r="T216" s="37"/>
       <c r="U216" s="36"/>
@@ -12490,19 +12546,19 @@
       <c r="CE216" s="37"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="9"/>
-      <c r="B217" s="10"/>
-      <c r="C217" s="10"/>
+      <c r="A217" s="3"/>
+      <c r="B217" s="5"/>
+      <c r="C217" s="5"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
-      <c r="F217" s="14"/>
-      <c r="G217" s="14"/>
+      <c r="F217" s="12"/>
+      <c r="G217" s="12"/>
       <c r="H217" s="35"/>
       <c r="I217" s="11"/>
       <c r="J217" s="11"/>
       <c r="K217" s="1"/>
-      <c r="L217" s="5"/>
-      <c r="M217" s="3"/>
+      <c r="L217" s="10"/>
+      <c r="M217" s="8"/>
       <c r="N217" s="36"/>
       <c r="T217" s="37"/>
       <c r="U217" s="36"/>
@@ -12525,19 +12581,19 @@
       <c r="CE217" s="37"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="9"/>
-      <c r="B218" s="10"/>
-      <c r="C218" s="10"/>
+      <c r="A218" s="3"/>
+      <c r="B218" s="5"/>
+      <c r="C218" s="5"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
-      <c r="F218" s="14"/>
-      <c r="G218" s="14"/>
+      <c r="F218" s="12"/>
+      <c r="G218" s="12"/>
       <c r="H218" s="35"/>
       <c r="I218" s="11"/>
       <c r="J218" s="11"/>
       <c r="K218" s="1"/>
-      <c r="L218" s="5"/>
-      <c r="M218" s="3"/>
+      <c r="L218" s="10"/>
+      <c r="M218" s="8"/>
       <c r="N218" s="36"/>
       <c r="T218" s="37"/>
       <c r="U218" s="36"/>
@@ -12560,19 +12616,19 @@
       <c r="CE218" s="37"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="9"/>
-      <c r="B219" s="10"/>
-      <c r="C219" s="10"/>
+      <c r="A219" s="3"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="5"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
-      <c r="F219" s="14"/>
-      <c r="G219" s="14"/>
+      <c r="F219" s="12"/>
+      <c r="G219" s="12"/>
       <c r="H219" s="35"/>
       <c r="I219" s="11"/>
       <c r="J219" s="11"/>
       <c r="K219" s="1"/>
-      <c r="L219" s="5"/>
-      <c r="M219" s="3"/>
+      <c r="L219" s="10"/>
+      <c r="M219" s="8"/>
       <c r="N219" s="36"/>
       <c r="T219" s="37"/>
       <c r="U219" s="36"/>
@@ -12595,19 +12651,19 @@
       <c r="CE219" s="37"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="9"/>
-      <c r="B220" s="10"/>
-      <c r="C220" s="10"/>
+      <c r="A220" s="3"/>
+      <c r="B220" s="5"/>
+      <c r="C220" s="5"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
-      <c r="F220" s="14"/>
-      <c r="G220" s="14"/>
+      <c r="F220" s="12"/>
+      <c r="G220" s="12"/>
       <c r="H220" s="35"/>
       <c r="I220" s="11"/>
       <c r="J220" s="11"/>
       <c r="K220" s="1"/>
-      <c r="L220" s="5"/>
-      <c r="M220" s="3"/>
+      <c r="L220" s="10"/>
+      <c r="M220" s="8"/>
       <c r="N220" s="36"/>
       <c r="T220" s="37"/>
       <c r="U220" s="36"/>
@@ -12630,19 +12686,19 @@
       <c r="CE220" s="37"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="9"/>
-      <c r="B221" s="10"/>
-      <c r="C221" s="10"/>
+      <c r="A221" s="3"/>
+      <c r="B221" s="5"/>
+      <c r="C221" s="5"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
-      <c r="F221" s="14"/>
-      <c r="G221" s="14"/>
+      <c r="F221" s="12"/>
+      <c r="G221" s="12"/>
       <c r="H221" s="35"/>
       <c r="I221" s="11"/>
       <c r="J221" s="11"/>
       <c r="K221" s="1"/>
-      <c r="L221" s="5"/>
-      <c r="M221" s="3"/>
+      <c r="L221" s="10"/>
+      <c r="M221" s="8"/>
       <c r="N221" s="36"/>
       <c r="T221" s="37"/>
       <c r="U221" s="36"/>
@@ -12665,19 +12721,19 @@
       <c r="CE221" s="37"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="9"/>
-      <c r="B222" s="10"/>
-      <c r="C222" s="10"/>
+      <c r="A222" s="3"/>
+      <c r="B222" s="5"/>
+      <c r="C222" s="5"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
-      <c r="F222" s="14"/>
-      <c r="G222" s="14"/>
+      <c r="F222" s="12"/>
+      <c r="G222" s="12"/>
       <c r="H222" s="35"/>
       <c r="I222" s="11"/>
       <c r="J222" s="11"/>
       <c r="K222" s="1"/>
-      <c r="L222" s="5"/>
-      <c r="M222" s="3"/>
+      <c r="L222" s="10"/>
+      <c r="M222" s="8"/>
       <c r="N222" s="36"/>
       <c r="T222" s="37"/>
       <c r="U222" s="36"/>
@@ -12700,19 +12756,19 @@
       <c r="CE222" s="37"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="9"/>
-      <c r="B223" s="10"/>
-      <c r="C223" s="10"/>
+      <c r="A223" s="3"/>
+      <c r="B223" s="5"/>
+      <c r="C223" s="5"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
-      <c r="F223" s="14"/>
-      <c r="G223" s="14"/>
+      <c r="F223" s="12"/>
+      <c r="G223" s="12"/>
       <c r="H223" s="35"/>
       <c r="I223" s="11"/>
       <c r="J223" s="11"/>
       <c r="K223" s="1"/>
-      <c r="L223" s="5"/>
-      <c r="M223" s="3"/>
+      <c r="L223" s="10"/>
+      <c r="M223" s="8"/>
       <c r="N223" s="36"/>
       <c r="T223" s="37"/>
       <c r="U223" s="36"/>
@@ -12735,19 +12791,19 @@
       <c r="CE223" s="37"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="9"/>
-      <c r="B224" s="10"/>
-      <c r="C224" s="10"/>
+      <c r="A224" s="3"/>
+      <c r="B224" s="5"/>
+      <c r="C224" s="5"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
-      <c r="F224" s="14"/>
-      <c r="G224" s="14"/>
+      <c r="F224" s="12"/>
+      <c r="G224" s="12"/>
       <c r="H224" s="35"/>
       <c r="I224" s="11"/>
       <c r="J224" s="11"/>
       <c r="K224" s="1"/>
-      <c r="L224" s="5"/>
-      <c r="M224" s="3"/>
+      <c r="L224" s="10"/>
+      <c r="M224" s="8"/>
       <c r="N224" s="36"/>
       <c r="T224" s="37"/>
       <c r="U224" s="36"/>
@@ -12770,19 +12826,19 @@
       <c r="CE224" s="37"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="9"/>
-      <c r="B225" s="10"/>
-      <c r="C225" s="10"/>
+      <c r="A225" s="3"/>
+      <c r="B225" s="5"/>
+      <c r="C225" s="5"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
-      <c r="F225" s="14"/>
-      <c r="G225" s="14"/>
+      <c r="F225" s="12"/>
+      <c r="G225" s="12"/>
       <c r="H225" s="35"/>
       <c r="I225" s="11"/>
       <c r="J225" s="11"/>
       <c r="K225" s="1"/>
-      <c r="L225" s="5"/>
-      <c r="M225" s="3"/>
+      <c r="L225" s="10"/>
+      <c r="M225" s="8"/>
       <c r="N225" s="36"/>
       <c r="T225" s="37"/>
       <c r="U225" s="36"/>
@@ -12805,19 +12861,19 @@
       <c r="CE225" s="37"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="9"/>
-      <c r="B226" s="10"/>
-      <c r="C226" s="10"/>
+      <c r="A226" s="3"/>
+      <c r="B226" s="5"/>
+      <c r="C226" s="5"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
-      <c r="F226" s="14"/>
-      <c r="G226" s="14"/>
+      <c r="F226" s="12"/>
+      <c r="G226" s="12"/>
       <c r="H226" s="35"/>
       <c r="I226" s="11"/>
       <c r="J226" s="11"/>
       <c r="K226" s="1"/>
-      <c r="L226" s="5"/>
-      <c r="M226" s="3"/>
+      <c r="L226" s="10"/>
+      <c r="M226" s="8"/>
       <c r="N226" s="36"/>
       <c r="T226" s="37"/>
       <c r="U226" s="36"/>
@@ -12840,19 +12896,19 @@
       <c r="CE226" s="37"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="9"/>
-      <c r="B227" s="10"/>
-      <c r="C227" s="10"/>
+      <c r="A227" s="3"/>
+      <c r="B227" s="5"/>
+      <c r="C227" s="5"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
-      <c r="F227" s="14"/>
-      <c r="G227" s="14"/>
+      <c r="F227" s="12"/>
+      <c r="G227" s="12"/>
       <c r="H227" s="35"/>
       <c r="I227" s="11"/>
       <c r="J227" s="11"/>
       <c r="K227" s="1"/>
-      <c r="L227" s="5"/>
-      <c r="M227" s="3"/>
+      <c r="L227" s="10"/>
+      <c r="M227" s="8"/>
       <c r="N227" s="36"/>
       <c r="T227" s="37"/>
       <c r="U227" s="36"/>
@@ -12875,19 +12931,19 @@
       <c r="CE227" s="37"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="9"/>
-      <c r="B228" s="10"/>
-      <c r="C228" s="10"/>
+      <c r="A228" s="3"/>
+      <c r="B228" s="5"/>
+      <c r="C228" s="5"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
-      <c r="F228" s="14"/>
-      <c r="G228" s="14"/>
+      <c r="F228" s="12"/>
+      <c r="G228" s="12"/>
       <c r="H228" s="35"/>
       <c r="I228" s="11"/>
       <c r="J228" s="11"/>
       <c r="K228" s="1"/>
-      <c r="L228" s="5"/>
-      <c r="M228" s="3"/>
+      <c r="L228" s="10"/>
+      <c r="M228" s="8"/>
       <c r="N228" s="36"/>
       <c r="T228" s="37"/>
       <c r="U228" s="36"/>
@@ -12910,19 +12966,19 @@
       <c r="CE228" s="37"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="9"/>
-      <c r="B229" s="10"/>
-      <c r="C229" s="10"/>
+      <c r="A229" s="3"/>
+      <c r="B229" s="5"/>
+      <c r="C229" s="5"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
-      <c r="F229" s="14"/>
-      <c r="G229" s="14"/>
+      <c r="F229" s="12"/>
+      <c r="G229" s="12"/>
       <c r="H229" s="35"/>
       <c r="I229" s="11"/>
       <c r="J229" s="11"/>
       <c r="K229" s="1"/>
-      <c r="L229" s="5"/>
-      <c r="M229" s="3"/>
+      <c r="L229" s="10"/>
+      <c r="M229" s="8"/>
       <c r="N229" s="36"/>
       <c r="T229" s="37"/>
       <c r="U229" s="36"/>
@@ -12945,19 +13001,19 @@
       <c r="CE229" s="37"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="9"/>
-      <c r="B230" s="10"/>
-      <c r="C230" s="10"/>
+      <c r="A230" s="3"/>
+      <c r="B230" s="5"/>
+      <c r="C230" s="5"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
-      <c r="F230" s="14"/>
-      <c r="G230" s="14"/>
+      <c r="F230" s="12"/>
+      <c r="G230" s="12"/>
       <c r="H230" s="35"/>
       <c r="I230" s="11"/>
       <c r="J230" s="11"/>
       <c r="K230" s="1"/>
-      <c r="L230" s="5"/>
-      <c r="M230" s="3"/>
+      <c r="L230" s="10"/>
+      <c r="M230" s="8"/>
       <c r="N230" s="36"/>
       <c r="T230" s="37"/>
       <c r="U230" s="36"/>
@@ -12980,19 +13036,19 @@
       <c r="CE230" s="37"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="9"/>
-      <c r="B231" s="10"/>
-      <c r="C231" s="10"/>
+      <c r="A231" s="3"/>
+      <c r="B231" s="5"/>
+      <c r="C231" s="5"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
-      <c r="F231" s="14"/>
-      <c r="G231" s="14"/>
+      <c r="F231" s="12"/>
+      <c r="G231" s="12"/>
       <c r="H231" s="35"/>
       <c r="I231" s="11"/>
       <c r="J231" s="11"/>
       <c r="K231" s="1"/>
-      <c r="L231" s="5"/>
-      <c r="M231" s="3"/>
+      <c r="L231" s="10"/>
+      <c r="M231" s="8"/>
       <c r="N231" s="36"/>
       <c r="T231" s="37"/>
       <c r="U231" s="36"/>
@@ -13015,19 +13071,19 @@
       <c r="CE231" s="37"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="9"/>
-      <c r="B232" s="10"/>
-      <c r="C232" s="10"/>
+      <c r="A232" s="3"/>
+      <c r="B232" s="5"/>
+      <c r="C232" s="5"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
-      <c r="F232" s="14"/>
-      <c r="G232" s="14"/>
+      <c r="F232" s="12"/>
+      <c r="G232" s="12"/>
       <c r="H232" s="35"/>
       <c r="I232" s="11"/>
       <c r="J232" s="11"/>
       <c r="K232" s="1"/>
-      <c r="L232" s="5"/>
-      <c r="M232" s="3"/>
+      <c r="L232" s="10"/>
+      <c r="M232" s="8"/>
       <c r="N232" s="36"/>
       <c r="T232" s="37"/>
       <c r="U232" s="36"/>
@@ -13050,19 +13106,19 @@
       <c r="CE232" s="37"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="9"/>
-      <c r="B233" s="10"/>
-      <c r="C233" s="10"/>
+      <c r="A233" s="3"/>
+      <c r="B233" s="5"/>
+      <c r="C233" s="5"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
-      <c r="F233" s="14"/>
-      <c r="G233" s="14"/>
+      <c r="F233" s="12"/>
+      <c r="G233" s="12"/>
       <c r="H233" s="35"/>
       <c r="I233" s="11"/>
       <c r="J233" s="11"/>
       <c r="K233" s="1"/>
-      <c r="L233" s="5"/>
-      <c r="M233" s="3"/>
+      <c r="L233" s="10"/>
+      <c r="M233" s="8"/>
       <c r="N233" s="36"/>
       <c r="T233" s="37"/>
       <c r="U233" s="36"/>
@@ -13085,19 +13141,19 @@
       <c r="CE233" s="37"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="9"/>
-      <c r="B234" s="10"/>
-      <c r="C234" s="10"/>
+      <c r="A234" s="3"/>
+      <c r="B234" s="5"/>
+      <c r="C234" s="5"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
-      <c r="F234" s="14"/>
-      <c r="G234" s="14"/>
+      <c r="F234" s="12"/>
+      <c r="G234" s="12"/>
       <c r="H234" s="35"/>
       <c r="I234" s="11"/>
       <c r="J234" s="11"/>
       <c r="K234" s="1"/>
-      <c r="L234" s="5"/>
-      <c r="M234" s="3"/>
+      <c r="L234" s="10"/>
+      <c r="M234" s="8"/>
       <c r="N234" s="36"/>
       <c r="T234" s="37"/>
       <c r="U234" s="36"/>
@@ -13120,19 +13176,19 @@
       <c r="CE234" s="37"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="9"/>
-      <c r="B235" s="10"/>
-      <c r="C235" s="10"/>
+      <c r="A235" s="3"/>
+      <c r="B235" s="5"/>
+      <c r="C235" s="5"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
-      <c r="F235" s="14"/>
-      <c r="G235" s="14"/>
+      <c r="F235" s="12"/>
+      <c r="G235" s="12"/>
       <c r="H235" s="35"/>
       <c r="I235" s="11"/>
       <c r="J235" s="11"/>
       <c r="K235" s="1"/>
-      <c r="L235" s="5"/>
-      <c r="M235" s="3"/>
+      <c r="L235" s="10"/>
+      <c r="M235" s="8"/>
       <c r="N235" s="36"/>
       <c r="T235" s="37"/>
       <c r="U235" s="36"/>
@@ -13155,19 +13211,19 @@
       <c r="CE235" s="37"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="9"/>
-      <c r="B236" s="10"/>
-      <c r="C236" s="10"/>
+      <c r="A236" s="3"/>
+      <c r="B236" s="5"/>
+      <c r="C236" s="5"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
-      <c r="F236" s="14"/>
-      <c r="G236" s="14"/>
+      <c r="F236" s="12"/>
+      <c r="G236" s="12"/>
       <c r="H236" s="35"/>
       <c r="I236" s="11"/>
       <c r="J236" s="11"/>
       <c r="K236" s="1"/>
-      <c r="L236" s="5"/>
-      <c r="M236" s="3"/>
+      <c r="L236" s="10"/>
+      <c r="M236" s="8"/>
       <c r="N236" s="36"/>
       <c r="T236" s="37"/>
       <c r="U236" s="36"/>
@@ -13190,19 +13246,19 @@
       <c r="CE236" s="37"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="9"/>
-      <c r="B237" s="10"/>
-      <c r="C237" s="10"/>
+      <c r="A237" s="3"/>
+      <c r="B237" s="5"/>
+      <c r="C237" s="5"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
-      <c r="F237" s="14"/>
-      <c r="G237" s="14"/>
+      <c r="F237" s="12"/>
+      <c r="G237" s="12"/>
       <c r="H237" s="35"/>
       <c r="I237" s="11"/>
       <c r="J237" s="11"/>
       <c r="K237" s="1"/>
-      <c r="L237" s="5"/>
-      <c r="M237" s="3"/>
+      <c r="L237" s="10"/>
+      <c r="M237" s="8"/>
       <c r="N237" s="36"/>
       <c r="T237" s="37"/>
       <c r="U237" s="36"/>
@@ -13225,19 +13281,19 @@
       <c r="CE237" s="37"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="9"/>
-      <c r="B238" s="10"/>
-      <c r="C238" s="10"/>
+      <c r="A238" s="3"/>
+      <c r="B238" s="5"/>
+      <c r="C238" s="5"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
-      <c r="F238" s="14"/>
-      <c r="G238" s="14"/>
+      <c r="F238" s="12"/>
+      <c r="G238" s="12"/>
       <c r="H238" s="35"/>
       <c r="I238" s="11"/>
       <c r="J238" s="11"/>
       <c r="K238" s="1"/>
-      <c r="L238" s="5"/>
-      <c r="M238" s="3"/>
+      <c r="L238" s="10"/>
+      <c r="M238" s="8"/>
       <c r="N238" s="36"/>
       <c r="T238" s="37"/>
       <c r="U238" s="36"/>
@@ -13260,8 +13316,8 @@
       <c r="CE238" s="37"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="B239" s="54"/>
-      <c r="C239" s="54"/>
+      <c r="B239" s="55"/>
+      <c r="C239" s="55"/>
       <c r="N239" s="36"/>
       <c r="T239" s="37"/>
       <c r="U239" s="36"/>
@@ -13284,8 +13340,8 @@
       <c r="CE239" s="37"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="B240" s="54"/>
-      <c r="C240" s="54"/>
+      <c r="B240" s="55"/>
+      <c r="C240" s="55"/>
       <c r="N240" s="36"/>
       <c r="T240" s="37"/>
       <c r="U240" s="36"/>
@@ -13308,8 +13364,8 @@
       <c r="CE240" s="37"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="B241" s="54"/>
-      <c r="C241" s="54"/>
+      <c r="B241" s="55"/>
+      <c r="C241" s="55"/>
       <c r="N241" s="36"/>
       <c r="T241" s="37"/>
       <c r="U241" s="36"/>
@@ -13332,8 +13388,8 @@
       <c r="CE241" s="37"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="B242" s="54"/>
-      <c r="C242" s="54"/>
+      <c r="B242" s="55"/>
+      <c r="C242" s="55"/>
       <c r="N242" s="36"/>
       <c r="T242" s="37"/>
       <c r="U242" s="36"/>
@@ -13356,8 +13412,8 @@
       <c r="CE242" s="37"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="B243" s="54"/>
-      <c r="C243" s="54"/>
+      <c r="B243" s="55"/>
+      <c r="C243" s="55"/>
       <c r="N243" s="36"/>
       <c r="T243" s="37"/>
       <c r="U243" s="36"/>
@@ -14176,24 +14232,24 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="3"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>3</v>
+      <c r="A2" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="15" t="s">
         <v>19</v>
       </c>
     </row>
@@ -14204,1317 +14260,1317 @@
       <c r="B3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="3"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="3"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="3"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="3"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="3"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="3"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="3"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="3"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="3"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="3"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="3"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="3"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="3"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="3"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="3"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="3"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="3"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="3"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="3"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="3"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="3"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="3"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="8"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="3"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="3"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="8"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="3"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="3"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="8"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="3"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="8"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="3"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="8"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="3"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="8"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="3"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="8"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="3"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="3"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="8"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="3"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="8"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="3"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="8"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="3"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="8"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="3"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="8"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="3"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="8"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="3"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="8"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="3"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="8"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="3"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="8"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="3"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="8"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="3"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="8"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="3"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="8"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="3"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="8"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="3"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="8"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="3"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="8"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="3"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="8"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="3"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="8"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="3"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="8"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="3"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="8"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="3"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="8"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="3"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="8"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="3"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="8"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="3"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="8"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="3"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="8"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="3"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="8"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="3"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="8"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="3"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="8"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="3"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="8"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="3"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="8"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="3"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="8"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="3"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="8"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="3"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="8"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="3"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="8"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="3"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="8"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="3"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="8"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="1"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="3"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="8"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="3"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="8"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="3"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="8"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="3"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="8"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="3"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="8"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="3"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="8"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="3"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="8"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="3"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="8"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="3"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="8"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="1"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="3"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="8"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="1"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="3"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="8"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="3"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="8"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="3"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="8"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="1"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="3"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="8"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="3"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="8"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="1"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="3"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="8"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="1"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="3"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="8"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="3"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="8"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="1"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="3"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="8"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="1"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="3"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="8"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="1"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="3"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="8"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="1"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="3"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="8"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="1"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="3"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="8"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="1"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="3"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="8"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="1"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="3"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="8"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="3"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="8"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="3"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="8"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="1"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="3"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="8"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="1"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="3"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="8"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="1"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="3"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="8"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="1"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="3"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="8"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="1"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="3"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="8"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="3"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="8"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="1"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="3"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="8"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="1"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="3"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="8"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="3"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="8"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="1"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="3"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="8"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="1"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="3"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="8"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="1"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="3"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="8"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="1"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="3"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="8"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="1"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="3"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="8"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="1"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="3"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="8"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="1"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="3"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="8"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="1"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="3"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="8"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="3"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="8"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="1"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="3"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="8"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="1"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="3"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="8"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="3"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="8"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="1"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="3"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="8"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="1"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="3"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="8"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="1"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="3"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="8"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="1"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="3"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="8"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="1"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="3"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="8"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="1"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="3"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="8"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="1"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="3"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="8"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="1"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="3"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="8"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="1"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="3"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="8"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="1"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="3"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="8"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="1"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="3"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="8"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="1"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="3"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="8"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="1"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="3"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="8"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="1"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="3"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="8"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="1"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="3"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="8"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="1"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="3"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="8"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="1"/>
-      <c r="C136" s="3"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="3"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="8"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="1"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="3"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="8"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="1"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="3"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="8"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="1"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="3"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="8"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="1"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="3"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="8"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="1"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="3"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="8"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="1"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="3"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="8"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="1"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="3"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="8"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="1"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="3"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="8"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="1"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="3"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="8"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="1"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="5"/>
-      <c r="E146" s="3"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="8"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="1"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="3"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="8"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="1"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="3"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="8"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="1"/>
-      <c r="C149" s="3"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="3"/>
+      <c r="C149" s="8"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="8"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="1"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="3"/>
+      <c r="C150" s="8"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="8"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="1"/>
-      <c r="C151" s="3"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="3"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="8"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="1"/>
-      <c r="C152" s="3"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="3"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="8"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="1"/>
-      <c r="C153" s="3"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="3"/>
+      <c r="C153" s="8"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="8"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="1"/>
-      <c r="C154" s="3"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="3"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="8"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="1"/>
-      <c r="C155" s="3"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="3"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="8"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="1"/>
-      <c r="C156" s="3"/>
-      <c r="D156" s="5"/>
-      <c r="E156" s="3"/>
+      <c r="C156" s="8"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="8"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="1"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="3"/>
+      <c r="C157" s="8"/>
+      <c r="D157" s="10"/>
+      <c r="E157" s="8"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="1"/>
-      <c r="C158" s="3"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="3"/>
+      <c r="C158" s="8"/>
+      <c r="D158" s="10"/>
+      <c r="E158" s="8"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="1"/>
-      <c r="C159" s="3"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="3"/>
+      <c r="C159" s="8"/>
+      <c r="D159" s="10"/>
+      <c r="E159" s="8"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="1"/>
-      <c r="C160" s="3"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="3"/>
+      <c r="C160" s="8"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="8"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="1"/>
-      <c r="C161" s="3"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="3"/>
+      <c r="C161" s="8"/>
+      <c r="D161" s="10"/>
+      <c r="E161" s="8"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="1"/>
-      <c r="C162" s="3"/>
-      <c r="D162" s="5"/>
-      <c r="E162" s="3"/>
+      <c r="C162" s="8"/>
+      <c r="D162" s="10"/>
+      <c r="E162" s="8"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="1"/>
-      <c r="C163" s="3"/>
-      <c r="D163" s="5"/>
-      <c r="E163" s="3"/>
+      <c r="C163" s="8"/>
+      <c r="D163" s="10"/>
+      <c r="E163" s="8"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="1"/>
-      <c r="C164" s="3"/>
-      <c r="D164" s="5"/>
-      <c r="E164" s="3"/>
+      <c r="C164" s="8"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="8"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="1"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="5"/>
-      <c r="E165" s="3"/>
+      <c r="C165" s="8"/>
+      <c r="D165" s="10"/>
+      <c r="E165" s="8"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="1"/>
-      <c r="C166" s="3"/>
-      <c r="D166" s="5"/>
-      <c r="E166" s="3"/>
+      <c r="C166" s="8"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="8"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="1"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="5"/>
-      <c r="E167" s="3"/>
+      <c r="C167" s="8"/>
+      <c r="D167" s="10"/>
+      <c r="E167" s="8"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="1"/>
-      <c r="C168" s="3"/>
-      <c r="D168" s="5"/>
-      <c r="E168" s="3"/>
+      <c r="C168" s="8"/>
+      <c r="D168" s="10"/>
+      <c r="E168" s="8"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="1"/>
-      <c r="C169" s="3"/>
-      <c r="D169" s="5"/>
-      <c r="E169" s="3"/>
+      <c r="C169" s="8"/>
+      <c r="D169" s="10"/>
+      <c r="E169" s="8"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="1"/>
-      <c r="C170" s="3"/>
-      <c r="D170" s="5"/>
-      <c r="E170" s="3"/>
+      <c r="C170" s="8"/>
+      <c r="D170" s="10"/>
+      <c r="E170" s="8"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="1"/>
-      <c r="C171" s="3"/>
-      <c r="D171" s="5"/>
-      <c r="E171" s="3"/>
+      <c r="C171" s="8"/>
+      <c r="D171" s="10"/>
+      <c r="E171" s="8"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="1"/>
-      <c r="C172" s="3"/>
-      <c r="D172" s="5"/>
-      <c r="E172" s="3"/>
+      <c r="C172" s="8"/>
+      <c r="D172" s="10"/>
+      <c r="E172" s="8"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="1"/>
-      <c r="C173" s="3"/>
-      <c r="D173" s="5"/>
-      <c r="E173" s="3"/>
+      <c r="C173" s="8"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="8"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="1"/>
-      <c r="C174" s="3"/>
-      <c r="D174" s="5"/>
-      <c r="E174" s="3"/>
+      <c r="C174" s="8"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="8"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="1"/>
-      <c r="C175" s="3"/>
-      <c r="D175" s="5"/>
-      <c r="E175" s="3"/>
+      <c r="C175" s="8"/>
+      <c r="D175" s="10"/>
+      <c r="E175" s="8"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="1"/>
-      <c r="C176" s="3"/>
-      <c r="D176" s="5"/>
-      <c r="E176" s="3"/>
+      <c r="C176" s="8"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="8"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="1"/>
-      <c r="C177" s="3"/>
-      <c r="D177" s="5"/>
-      <c r="E177" s="3"/>
+      <c r="C177" s="8"/>
+      <c r="D177" s="10"/>
+      <c r="E177" s="8"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="1"/>
-      <c r="C178" s="3"/>
-      <c r="D178" s="5"/>
-      <c r="E178" s="3"/>
+      <c r="C178" s="8"/>
+      <c r="D178" s="10"/>
+      <c r="E178" s="8"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="1"/>
-      <c r="C179" s="3"/>
-      <c r="D179" s="5"/>
-      <c r="E179" s="3"/>
+      <c r="C179" s="8"/>
+      <c r="D179" s="10"/>
+      <c r="E179" s="8"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="1"/>
-      <c r="C180" s="3"/>
-      <c r="D180" s="5"/>
-      <c r="E180" s="3"/>
+      <c r="C180" s="8"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="8"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="1"/>
-      <c r="C181" s="3"/>
-      <c r="D181" s="5"/>
-      <c r="E181" s="3"/>
+      <c r="C181" s="8"/>
+      <c r="D181" s="10"/>
+      <c r="E181" s="8"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="1"/>
-      <c r="C182" s="3"/>
-      <c r="D182" s="5"/>
-      <c r="E182" s="3"/>
+      <c r="C182" s="8"/>
+      <c r="D182" s="10"/>
+      <c r="E182" s="8"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="1"/>
-      <c r="C183" s="3"/>
-      <c r="D183" s="5"/>
-      <c r="E183" s="3"/>
+      <c r="C183" s="8"/>
+      <c r="D183" s="10"/>
+      <c r="E183" s="8"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="1"/>
-      <c r="C184" s="3"/>
-      <c r="D184" s="5"/>
-      <c r="E184" s="3"/>
+      <c r="C184" s="8"/>
+      <c r="D184" s="10"/>
+      <c r="E184" s="8"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="1"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="5"/>
-      <c r="E185" s="3"/>
+      <c r="C185" s="8"/>
+      <c r="D185" s="10"/>
+      <c r="E185" s="8"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="1"/>
-      <c r="C186" s="3"/>
-      <c r="D186" s="5"/>
-      <c r="E186" s="3"/>
+      <c r="C186" s="8"/>
+      <c r="D186" s="10"/>
+      <c r="E186" s="8"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="1"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="5"/>
-      <c r="E187" s="3"/>
+      <c r="C187" s="8"/>
+      <c r="D187" s="10"/>
+      <c r="E187" s="8"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="1"/>
-      <c r="C188" s="3"/>
-      <c r="D188" s="5"/>
-      <c r="E188" s="3"/>
+      <c r="C188" s="8"/>
+      <c r="D188" s="10"/>
+      <c r="E188" s="8"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="1"/>
-      <c r="C189" s="3"/>
-      <c r="D189" s="5"/>
-      <c r="E189" s="3"/>
+      <c r="C189" s="8"/>
+      <c r="D189" s="10"/>
+      <c r="E189" s="8"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="1"/>
-      <c r="C190" s="3"/>
-      <c r="D190" s="5"/>
-      <c r="E190" s="3"/>
+      <c r="C190" s="8"/>
+      <c r="D190" s="10"/>
+      <c r="E190" s="8"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="1"/>
-      <c r="C191" s="3"/>
-      <c r="D191" s="5"/>
-      <c r="E191" s="3"/>
+      <c r="C191" s="8"/>
+      <c r="D191" s="10"/>
+      <c r="E191" s="8"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="1"/>
-      <c r="C192" s="3"/>
-      <c r="D192" s="5"/>
-      <c r="E192" s="3"/>
+      <c r="C192" s="8"/>
+      <c r="D192" s="10"/>
+      <c r="E192" s="8"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="1"/>
-      <c r="C193" s="3"/>
-      <c r="D193" s="5"/>
-      <c r="E193" s="3"/>
+      <c r="C193" s="8"/>
+      <c r="D193" s="10"/>
+      <c r="E193" s="8"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="1"/>
-      <c r="C194" s="3"/>
-      <c r="D194" s="5"/>
-      <c r="E194" s="3"/>
+      <c r="C194" s="8"/>
+      <c r="D194" s="10"/>
+      <c r="E194" s="8"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="1"/>
-      <c r="C195" s="3"/>
-      <c r="D195" s="5"/>
-      <c r="E195" s="3"/>
+      <c r="C195" s="8"/>
+      <c r="D195" s="10"/>
+      <c r="E195" s="8"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="1"/>
-      <c r="C196" s="3"/>
-      <c r="D196" s="5"/>
-      <c r="E196" s="3"/>
+      <c r="C196" s="8"/>
+      <c r="D196" s="10"/>
+      <c r="E196" s="8"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="1"/>
-      <c r="C197" s="3"/>
-      <c r="D197" s="5"/>
-      <c r="E197" s="3"/>
+      <c r="C197" s="8"/>
+      <c r="D197" s="10"/>
+      <c r="E197" s="8"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="1"/>
-      <c r="C198" s="3"/>
-      <c r="D198" s="5"/>
-      <c r="E198" s="3"/>
+      <c r="C198" s="8"/>
+      <c r="D198" s="10"/>
+      <c r="E198" s="8"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="1"/>
-      <c r="C199" s="3"/>
-      <c r="D199" s="5"/>
-      <c r="E199" s="3"/>
+      <c r="C199" s="8"/>
+      <c r="D199" s="10"/>
+      <c r="E199" s="8"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="1"/>
-      <c r="C200" s="3"/>
-      <c r="D200" s="5"/>
-      <c r="E200" s="3"/>
+      <c r="C200" s="8"/>
+      <c r="D200" s="10"/>
+      <c r="E200" s="8"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="1"/>
-      <c r="C201" s="3"/>
-      <c r="D201" s="5"/>
-      <c r="E201" s="3"/>
+      <c r="C201" s="8"/>
+      <c r="D201" s="10"/>
+      <c r="E201" s="8"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="1"/>
-      <c r="C202" s="3"/>
-      <c r="D202" s="5"/>
-      <c r="E202" s="3"/>
+      <c r="C202" s="8"/>
+      <c r="D202" s="10"/>
+      <c r="E202" s="8"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="1"/>
-      <c r="C203" s="3"/>
-      <c r="D203" s="5"/>
-      <c r="E203" s="3"/>
+      <c r="C203" s="8"/>
+      <c r="D203" s="10"/>
+      <c r="E203" s="8"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="1"/>
-      <c r="C204" s="3"/>
-      <c r="D204" s="5"/>
-      <c r="E204" s="3"/>
+      <c r="C204" s="8"/>
+      <c r="D204" s="10"/>
+      <c r="E204" s="8"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="1"/>
-      <c r="C205" s="3"/>
-      <c r="D205" s="5"/>
-      <c r="E205" s="3"/>
+      <c r="C205" s="8"/>
+      <c r="D205" s="10"/>
+      <c r="E205" s="8"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="1"/>
-      <c r="C206" s="3"/>
-      <c r="D206" s="5"/>
-      <c r="E206" s="3"/>
+      <c r="C206" s="8"/>
+      <c r="D206" s="10"/>
+      <c r="E206" s="8"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="1"/>
-      <c r="C207" s="3"/>
-      <c r="D207" s="5"/>
-      <c r="E207" s="3"/>
+      <c r="C207" s="8"/>
+      <c r="D207" s="10"/>
+      <c r="E207" s="8"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="1"/>
-      <c r="C208" s="3"/>
-      <c r="D208" s="5"/>
-      <c r="E208" s="3"/>
+      <c r="C208" s="8"/>
+      <c r="D208" s="10"/>
+      <c r="E208" s="8"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="1"/>
-      <c r="C209" s="3"/>
-      <c r="D209" s="5"/>
-      <c r="E209" s="3"/>
+      <c r="C209" s="8"/>
+      <c r="D209" s="10"/>
+      <c r="E209" s="8"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="1"/>
-      <c r="C210" s="3"/>
-      <c r="D210" s="5"/>
-      <c r="E210" s="3"/>
+      <c r="C210" s="8"/>
+      <c r="D210" s="10"/>
+      <c r="E210" s="8"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="1"/>
-      <c r="C211" s="3"/>
-      <c r="D211" s="5"/>
-      <c r="E211" s="3"/>
+      <c r="C211" s="8"/>
+      <c r="D211" s="10"/>
+      <c r="E211" s="8"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="1"/>
-      <c r="C212" s="3"/>
-      <c r="D212" s="5"/>
-      <c r="E212" s="3"/>
+      <c r="C212" s="8"/>
+      <c r="D212" s="10"/>
+      <c r="E212" s="8"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="1"/>
-      <c r="C213" s="3"/>
-      <c r="D213" s="5"/>
-      <c r="E213" s="3"/>
+      <c r="C213" s="8"/>
+      <c r="D213" s="10"/>
+      <c r="E213" s="8"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="1"/>
-      <c r="C214" s="3"/>
-      <c r="D214" s="5"/>
-      <c r="E214" s="3"/>
+      <c r="C214" s="8"/>
+      <c r="D214" s="10"/>
+      <c r="E214" s="8"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="1"/>
-      <c r="C215" s="3"/>
-      <c r="D215" s="5"/>
-      <c r="E215" s="3"/>
+      <c r="C215" s="8"/>
+      <c r="D215" s="10"/>
+      <c r="E215" s="8"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="1"/>
-      <c r="C216" s="3"/>
-      <c r="D216" s="5"/>
-      <c r="E216" s="3"/>
+      <c r="C216" s="8"/>
+      <c r="D216" s="10"/>
+      <c r="E216" s="8"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="1"/>
-      <c r="C217" s="3"/>
-      <c r="D217" s="5"/>
-      <c r="E217" s="3"/>
+      <c r="C217" s="8"/>
+      <c r="D217" s="10"/>
+      <c r="E217" s="8"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="1"/>
-      <c r="C218" s="3"/>
-      <c r="D218" s="5"/>
-      <c r="E218" s="3"/>
+      <c r="C218" s="8"/>
+      <c r="D218" s="10"/>
+      <c r="E218" s="8"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="1"/>
-      <c r="C219" s="3"/>
-      <c r="D219" s="5"/>
-      <c r="E219" s="3"/>
+      <c r="C219" s="8"/>
+      <c r="D219" s="10"/>
+      <c r="E219" s="8"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="1"/>
-      <c r="C220" s="3"/>
-      <c r="D220" s="5"/>
-      <c r="E220" s="3"/>
+      <c r="C220" s="8"/>
+      <c r="D220" s="10"/>
+      <c r="E220" s="8"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
@@ -16318,10 +16374,10 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1"/>
@@ -17344,10 +17400,10 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1"/>
